--- a/BackTest/2020-01-11 BackTest XSR.xlsx
+++ b/BackTest/2020-01-11 BackTest XSR.xlsx
@@ -1011,13 +1011,17 @@
         <v>6.545083333333336</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6.164</v>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1046,14 +1050,22 @@
         <v>6.534516666666669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1081,14 +1093,22 @@
         <v>6.527400000000002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1116,14 +1136,22 @@
         <v>6.518966666666668</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>6.308</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1157,8 +1185,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1192,8 +1226,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1227,8 +1267,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1262,8 +1308,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1349,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1326,14 +1384,22 @@
         <v>6.465833333333336</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1361,14 +1427,22 @@
         <v>6.457233333333336</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1396,14 +1470,22 @@
         <v>6.44956666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>6.115</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1431,14 +1513,22 @@
         <v>6.438583333333337</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>6.151</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1466,14 +1556,22 @@
         <v>6.423750000000004</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>6.171</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1501,14 +1599,22 @@
         <v>6.416183333333337</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1536,14 +1642,22 @@
         <v>6.403166666666672</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>6.199</v>
+      </c>
+      <c r="K33" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1577,8 +1691,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1612,8 +1732,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1647,8 +1773,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1682,8 +1814,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1717,8 +1855,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1752,8 +1896,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1787,8 +1937,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1822,8 +1978,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1857,8 +2019,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1892,8 +2060,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1927,8 +2101,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1962,8 +2142,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1997,8 +2183,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2026,18 +2218,20 @@
         <v>6.266950000000006</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>6.134</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>6.134</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
+        <v>6.164</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2072,11 +2266,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M48" t="n">
@@ -2113,7 +2307,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2147,16 +2341,14 @@
         <v>6.242500000000005</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>6.167</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2197,7 +2389,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2238,7 +2430,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2279,7 +2471,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2320,7 +2512,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2361,7 +2553,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2402,7 +2594,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2443,7 +2635,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2484,7 +2676,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2525,7 +2717,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2559,16 +2751,14 @@
         <v>6.174100000000007</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>6.173</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2609,7 +2799,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2650,7 +2840,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2691,7 +2881,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2732,7 +2922,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2773,7 +2963,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2814,7 +3004,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2855,7 +3045,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2896,7 +3086,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2937,7 +3127,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -2978,7 +3168,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3019,7 +3209,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3060,7 +3250,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3101,7 +3291,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3142,7 +3332,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3183,7 +3373,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3224,7 +3414,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3265,7 +3455,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3306,7 +3496,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3347,7 +3537,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3388,7 +3578,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3429,7 +3619,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3470,7 +3660,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3511,7 +3701,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3552,7 +3742,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3593,7 +3783,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3634,7 +3824,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3675,7 +3865,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3716,7 +3906,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3757,7 +3947,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3798,7 +3988,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3839,7 +4029,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3880,7 +4070,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3921,7 +4111,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3962,7 +4152,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4003,7 +4193,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4044,7 +4234,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4085,7 +4275,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4126,7 +4316,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4167,7 +4357,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4208,7 +4398,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4249,7 +4439,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4290,7 +4480,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4331,7 +4521,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4372,7 +4562,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4413,7 +4603,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4454,7 +4644,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4495,7 +4685,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4536,7 +4726,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4577,7 +4767,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4618,7 +4808,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4659,7 +4849,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4700,7 +4890,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4741,7 +4931,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4782,7 +4972,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4823,7 +5013,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4864,7 +5054,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4905,7 +5095,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4946,7 +5136,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4987,7 +5177,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5028,7 +5218,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5069,7 +5259,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5110,7 +5300,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5151,7 +5341,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5192,7 +5382,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5233,7 +5423,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5274,7 +5464,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5315,7 +5505,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5356,7 +5546,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5397,7 +5587,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5438,7 +5628,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5479,7 +5669,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5520,7 +5710,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5561,7 +5751,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5602,7 +5792,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5643,7 +5833,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5684,7 +5874,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5725,7 +5915,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5766,7 +5956,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5807,7 +5997,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5848,7 +6038,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5889,7 +6079,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5930,7 +6120,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5971,7 +6161,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6012,7 +6202,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6053,7 +6243,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6094,7 +6284,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6135,7 +6325,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6176,7 +6366,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6217,7 +6407,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6258,7 +6448,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6299,7 +6489,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6340,7 +6530,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6381,7 +6571,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6422,7 +6612,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6463,7 +6653,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6504,7 +6694,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6545,7 +6735,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6586,7 +6776,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6627,7 +6817,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6668,7 +6858,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6709,7 +6899,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6750,7 +6940,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6791,7 +6981,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6832,7 +7022,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6873,7 +7063,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6914,7 +7104,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6955,7 +7145,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6996,7 +7186,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -7037,7 +7227,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -7078,7 +7268,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -7119,7 +7309,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -7160,7 +7350,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -7201,7 +7391,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -7242,7 +7432,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -7276,16 +7466,14 @@
         <v>6.186666666666678</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>6.121</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -7319,16 +7507,14 @@
         <v>6.186000000000011</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>6.167</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -7362,16 +7548,14 @@
         <v>6.185316666666678</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>6.167</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -7405,16 +7589,14 @@
         <v>6.184816666666678</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7448,16 +7630,14 @@
         <v>6.184216666666678</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>6.184</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7498,7 +7678,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7539,7 +7719,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7580,7 +7760,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7621,7 +7801,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7655,16 +7835,14 @@
         <v>6.180783333333346</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>6.178</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7705,7 +7883,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7746,7 +7924,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7780,16 +7958,14 @@
         <v>6.174750000000014</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>6.082</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7823,16 +7999,14 @@
         <v>6.172983333333347</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>6.096</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7866,16 +8040,14 @@
         <v>6.170500000000014</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>6.096</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7909,16 +8081,14 @@
         <v>6.167833333333347</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>6.036</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7952,16 +8122,14 @@
         <v>6.165150000000013</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>6.034</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7995,16 +8163,14 @@
         <v>6.163783333333345</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>6.114</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -8038,16 +8204,14 @@
         <v>6.162350000000012</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>6.115</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -8081,16 +8245,14 @@
         <v>6.160966666666679</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>6.115</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -8124,16 +8286,14 @@
         <v>6.15961666666668</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>6.117</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -8167,16 +8327,14 @@
         <v>6.158800000000013</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>6.117</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -8210,16 +8368,14 @@
         <v>6.157600000000013</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>6.1</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -8253,16 +8409,14 @@
         <v>6.156716666666679</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>6.113</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -8296,16 +8450,14 @@
         <v>6.155716666666678</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>6.1</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -8339,16 +8491,14 @@
         <v>6.154950000000012</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>6.1</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -8382,16 +8532,14 @@
         <v>6.153383333333344</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>6.074</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -8425,16 +8573,14 @@
         <v>6.151833333333344</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>6.094</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -8468,16 +8614,14 @@
         <v>6.149716666666677</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>6.078</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -8511,16 +8655,14 @@
         <v>6.147583333333344</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>6.072</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -8554,16 +8696,14 @@
         <v>6.144566666666678</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>6.062</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -8597,16 +8737,14 @@
         <v>6.141566666666677</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>6.016</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -8640,16 +8778,14 @@
         <v>6.13970000000001</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>6.058</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -8683,16 +8819,14 @@
         <v>6.137866666666677</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>6.073</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -8726,16 +8860,14 @@
         <v>6.135166666666676</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>6.025</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -8769,16 +8901,14 @@
         <v>6.132750000000009</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>6.041</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -8812,16 +8942,14 @@
         <v>6.131016666666675</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>6.061</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -8855,16 +8983,14 @@
         <v>6.129400000000008</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>6.09</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -8898,16 +9024,14 @@
         <v>6.127150000000008</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>6.091</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -8941,16 +9065,14 @@
         <v>6.124916666666675</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>6.053</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -8984,16 +9106,14 @@
         <v>6.123366666666674</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>6.09</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -9027,16 +9147,14 @@
         <v>6.121816666666674</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>6.073</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -9070,16 +9188,14 @@
         <v>6.118916666666674</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>6.094</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -9113,16 +9229,14 @@
         <v>6.116766666666675</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>6.087</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -9156,16 +9270,14 @@
         <v>6.114833333333341</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>6.069</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -9199,16 +9311,14 @@
         <v>6.112233333333341</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>6.057</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -9242,16 +9352,14 @@
         <v>6.109366666666674</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>6.039</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -9285,16 +9393,14 @@
         <v>6.106183333333342</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>6.011</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -9328,16 +9434,14 @@
         <v>6.103000000000009</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>6.009</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -9371,16 +9475,14 @@
         <v>6.101366666666675</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>6.03</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -9414,16 +9516,14 @@
         <v>6.100066666666675</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>6.032</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -9457,16 +9557,14 @@
         <v>6.098400000000008</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>6.041</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -9500,16 +9598,14 @@
         <v>6.095766666666674</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>6.041</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -9543,16 +9639,14 @@
         <v>6.092866666666675</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>6.021</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -9586,16 +9680,14 @@
         <v>6.089250000000008</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>6.042</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -9629,16 +9721,14 @@
         <v>6.085933333333341</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>6.057</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -9672,16 +9762,14 @@
         <v>6.084283333333341</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>6.029</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -9715,16 +9803,14 @@
         <v>6.083816666666674</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>6.072</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -9758,16 +9844,14 @@
         <v>6.083283333333339</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>6.078</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -9801,16 +9885,14 @@
         <v>6.082100000000007</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>6.072</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -9844,16 +9926,14 @@
         <v>6.080300000000007</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>6.059</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -9887,16 +9967,14 @@
         <v>6.078016666666674</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>6.041</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -9930,16 +10008,14 @@
         <v>6.075850000000007</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>6.04</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -9973,16 +10049,14 @@
         <v>6.07328333333334</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>6.046</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -10016,16 +10090,14 @@
         <v>6.070950000000007</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>6.03</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -10059,16 +10131,14 @@
         <v>6.06893333333334</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>6.046</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -10102,16 +10172,14 @@
         <v>6.06718333333334</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>6.064</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -10145,16 +10213,14 @@
         <v>6.066450000000007</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>6.067</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -10188,16 +10254,14 @@
         <v>6.06473333333334</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>6.067</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -10231,16 +10295,14 @@
         <v>6.06243333333334</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>6.061</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -10274,16 +10336,14 @@
         <v>6.062400000000006</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>6.091</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -10317,16 +10377,14 @@
         <v>6.062683333333339</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>6.098</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -10360,16 +10418,14 @@
         <v>6.062750000000006</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>6.099</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -10403,16 +10459,14 @@
         <v>6.062766666666672</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>6.099</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -10446,16 +10500,14 @@
         <v>6.063366666666671</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>6.08</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -10489,16 +10541,14 @@
         <v>6.064083333333339</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>6.072</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -10532,16 +10582,14 @@
         <v>6.064533333333339</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>6.062</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -10575,16 +10623,14 @@
         <v>6.063833333333339</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>6.072</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -10618,16 +10664,14 @@
         <v>6.062983333333339</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -10661,16 +10705,14 @@
         <v>6.062483333333338</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>6.07</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -10704,16 +10746,14 @@
         <v>6.062366666666672</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>6.11</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -10747,16 +10787,14 @@
         <v>6.062266666666672</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>6.11</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -10790,16 +10828,14 @@
         <v>6.062050000000005</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>6.097</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -10833,16 +10869,14 @@
         <v>6.061416666666672</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>6.087</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -10876,16 +10910,14 @@
         <v>6.060900000000005</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>6.082</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -10919,16 +10951,14 @@
         <v>6.060816666666671</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>6.095</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -10962,16 +10992,14 @@
         <v>6.061016666666672</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>6.09</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -11005,16 +11033,14 @@
         <v>6.060450000000005</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>6.061</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -11048,16 +11074,14 @@
         <v>6.060800000000005</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -11091,16 +11115,14 @@
         <v>6.061116666666672</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>6.091</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -11134,16 +11156,14 @@
         <v>6.062333333333338</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>6.092</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -11177,16 +11197,14 @@
         <v>6.063466666666671</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>6.089</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -11220,16 +11238,14 @@
         <v>6.063783333333338</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>6.084</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -11263,16 +11279,14 @@
         <v>6.063866666666671</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>6.078</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -11306,16 +11320,14 @@
         <v>6.064916666666672</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>6.078</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -11349,16 +11361,14 @@
         <v>6.066000000000006</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>6.078</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -11392,16 +11402,14 @@
         <v>6.066333333333341</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>6.107</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -11435,16 +11443,14 @@
         <v>6.066716666666674</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>6.113</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -11478,16 +11484,14 @@
         <v>6.067366666666674</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>6.09</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -11521,16 +11525,14 @@
         <v>6.068366666666674</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>6.091</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -11564,16 +11566,14 @@
         <v>6.068716666666674</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>6.112</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -11607,16 +11607,14 @@
         <v>6.069033333333341</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>6.113</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -11650,16 +11648,14 @@
         <v>6.07073333333334</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>6.114</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -11693,16 +11689,14 @@
         <v>6.071700000000007</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>6.115</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -11736,16 +11730,14 @@
         <v>6.073866666666674</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>6.116</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -11779,16 +11771,14 @@
         <v>6.07628333333334</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>6.198</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -11822,16 +11812,14 @@
         <v>6.07828333333334</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>6.16</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -11865,16 +11853,14 @@
         <v>6.080816666666673</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>6.15</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -11908,16 +11894,14 @@
         <v>6.08393333333334</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>6.196</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -11951,16 +11935,14 @@
         <v>6.085616666666673</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>6.16</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -11994,16 +11976,14 @@
         <v>6.088083333333341</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>6.139</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -12037,16 +12017,14 @@
         <v>6.089566666666673</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>6.13</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -12080,16 +12058,14 @@
         <v>6.091533333333341</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>6.148</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -12123,16 +12099,14 @@
         <v>6.09393333333334</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>6.155</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -12166,16 +12140,14 @@
         <v>6.09643333333334</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>6.172</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -12209,16 +12181,14 @@
         <v>6.09883333333334</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>6.161</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -12252,16 +12222,14 @@
         <v>6.099800000000007</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>6.16</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -12295,16 +12263,14 @@
         <v>6.100616666666673</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>6.13</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -12338,16 +12304,14 @@
         <v>6.101166666666674</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>6.114</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -12381,16 +12345,14 @@
         <v>6.101466666666673</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>6.091</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -12424,16 +12386,14 @@
         <v>6.101983333333339</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>6.082</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -12467,16 +12427,14 @@
         <v>6.104316666666674</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>6.129</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -12510,16 +12468,14 @@
         <v>6.106200000000007</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>6.165</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -12553,16 +12509,14 @@
         <v>6.107750000000007</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>6.123</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -12596,16 +12550,14 @@
         <v>6.109066666666674</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>6.123</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -12639,16 +12591,14 @@
         <v>6.110516666666673</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>6.152</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -12682,16 +12632,14 @@
         <v>6.111916666666674</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>6.151</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -12725,16 +12673,14 @@
         <v>6.113350000000008</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>6.151</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -12768,16 +12714,14 @@
         <v>6.114283333333342</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>6.153</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -12811,16 +12755,14 @@
         <v>6.115666666666675</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>6.144</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -12854,16 +12796,14 @@
         <v>6.116366666666675</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>6.14</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -12897,16 +12837,14 @@
         <v>6.116916666666675</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>6.132</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -12940,16 +12878,14 @@
         <v>6.117383333333342</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>6.132</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -12983,16 +12919,14 @@
         <v>6.117416666666675</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>6.127</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -13026,16 +12960,14 @@
         <v>6.117050000000009</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>6.097</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -13069,16 +13001,14 @@
         <v>6.117050000000009</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>6.063</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -13112,16 +13042,14 @@
         <v>6.116883333333343</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>6.062</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -13155,16 +13083,14 @@
         <v>6.117466666666676</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>6.051</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -13198,16 +13124,14 @@
         <v>6.118183333333343</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>6.1</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -13241,16 +13165,14 @@
         <v>6.117566666666677</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>6.107</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -13284,16 +13206,14 @@
         <v>6.117783333333343</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>6.082</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -13327,16 +13247,14 @@
         <v>6.117450000000009</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>6.09</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -13370,16 +13288,14 @@
         <v>6.117500000000009</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>6.09</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -13413,16 +13329,14 @@
         <v>6.117700000000009</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>6.093</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -13456,16 +13370,14 @@
         <v>6.118050000000008</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>6.097</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -13499,16 +13411,14 @@
         <v>6.118116666666674</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>6.099</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -13542,16 +13452,14 @@
         <v>6.118383333333341</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>6.106</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -13585,16 +13493,14 @@
         <v>6.11948333333334</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -13628,16 +13534,14 @@
         <v>6.120033333333341</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>6.126</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -13671,16 +13575,14 @@
         <v>6.120416666666673</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>6.126</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -13714,16 +13616,14 @@
         <v>6.121016666666674</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>6.114</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -13757,16 +13657,14 @@
         <v>6.12168333333334</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>6.125</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -13800,16 +13698,14 @@
         <v>6.121566666666674</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>6.124</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -13843,16 +13739,14 @@
         <v>6.122050000000008</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>6.09</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -13886,16 +13780,14 @@
         <v>6.122133333333341</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>6.093</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -13929,16 +13821,14 @@
         <v>6.121816666666675</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>6.088</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -13972,16 +13862,14 @@
         <v>6.121816666666675</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>6.093</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -14015,16 +13903,14 @@
         <v>6.121483333333342</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>6.093</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -14058,16 +13944,14 @@
         <v>6.121533333333343</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>6.093</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -14101,16 +13985,14 @@
         <v>6.121350000000009</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>6.119</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -14144,16 +14026,14 @@
         <v>6.121166666666675</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>6.102</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -14187,16 +14067,14 @@
         <v>6.120833333333342</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>6.102</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -14230,16 +14108,14 @@
         <v>6.120900000000009</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>6.119</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -14273,16 +14149,14 @@
         <v>6.120533333333342</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>6.093</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -14316,16 +14190,14 @@
         <v>6.118950000000009</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -14359,16 +14231,14 @@
         <v>6.118016666666676</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>6.105</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -14402,16 +14272,14 @@
         <v>6.116966666666675</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>6.105</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -14445,16 +14313,14 @@
         <v>6.116183333333342</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>6.114</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -14488,16 +14354,14 @@
         <v>6.114333333333341</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>6.085</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -14531,16 +14395,14 @@
         <v>6.113016666666675</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>6.085</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -14574,16 +14436,14 @@
         <v>6.111066666666674</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -14617,16 +14477,14 @@
         <v>6.109733333333341</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -14660,16 +14518,14 @@
         <v>6.108100000000007</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>6.049</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -14703,16 +14559,14 @@
         <v>6.106350000000008</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -14746,16 +14600,14 @@
         <v>6.104683333333341</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>6.061</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -14789,16 +14641,14 @@
         <v>6.102816666666674</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>6.061</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -14832,16 +14682,14 @@
         <v>6.101016666666674</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>6.062</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -14875,16 +14723,14 @@
         <v>6.099850000000007</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>6.04</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -14918,16 +14764,14 @@
         <v>6.098833333333341</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>6.04</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -14961,16 +14805,14 @@
         <v>6.098183333333341</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>6.04</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -15004,16 +14846,14 @@
         <v>6.098016666666675</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>6.072</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -15047,16 +14887,14 @@
         <v>6.096950000000008</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>6.099</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -15090,16 +14928,14 @@
         <v>6.095850000000008</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>6.106</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -15133,16 +14969,14 @@
         <v>6.095416666666674</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>6.097</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -15176,16 +15010,14 @@
         <v>6.095116666666673</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>6.097</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -15219,16 +15051,14 @@
         <v>6.094350000000007</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>6.105</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -15262,16 +15092,14 @@
         <v>6.09363333333334</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>6.106</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -15305,16 +15133,14 @@
         <v>6.092900000000006</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>6.108</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -15348,16 +15174,14 @@
         <v>6.092200000000005</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>6.11</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -15391,16 +15215,14 @@
         <v>6.091816666666672</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>6.112</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -15434,16 +15256,14 @@
         <v>6.091500000000005</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>6.121</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -15477,16 +15297,14 @@
         <v>6.091516666666672</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>6.121</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -15520,16 +15338,14 @@
         <v>6.091733333333337</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>6.133</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -15563,16 +15379,14 @@
         <v>6.092366666666671</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>6.14</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -15606,16 +15420,14 @@
         <v>6.093816666666671</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>6.137</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -15649,16 +15461,14 @@
         <v>6.095100000000004</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>6.137</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -15692,16 +15502,14 @@
         <v>6.097000000000005</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>6.165</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -15735,16 +15543,14 @@
         <v>6.099633333333338</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>6.165</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -15778,16 +15584,14 @@
         <v>6.102650000000003</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>6.265</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -15821,16 +15625,14 @@
         <v>6.106233333333337</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>6.288</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -15864,16 +15666,14 @@
         <v>6.108583333333337</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>6.201</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -15914,7 +15714,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -15955,7 +15755,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -15996,7 +15796,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -16037,7 +15837,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -16078,7 +15878,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -16119,7 +15919,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -16160,7 +15960,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -16201,7 +16001,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -16242,7 +16042,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -16276,16 +16076,14 @@
         <v>6.118833333333338</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>6.107</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -16319,16 +16117,14 @@
         <v>6.118800000000005</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>6.122</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -16362,16 +16158,14 @@
         <v>6.120366666666671</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>6.176</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -16405,16 +16199,14 @@
         <v>6.121183333333337</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>6.156</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -16448,16 +16240,14 @@
         <v>6.122133333333337</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>6.15</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -16491,16 +16281,14 @@
         <v>6.122850000000002</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>6.132</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -16534,16 +16322,14 @@
         <v>6.123183333333335</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>6.131</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -16577,16 +16363,14 @@
         <v>6.123633333333335</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>6.13</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -16620,16 +16404,14 @@
         <v>6.124200000000002</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>6.12</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
@@ -16663,16 +16445,14 @@
         <v>6.124683333333335</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>6.131</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L394" t="inlineStr">
         <is>
@@ -16706,16 +16486,14 @@
         <v>6.125483333333335</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>6.15</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L395" t="inlineStr">
         <is>
@@ -16749,16 +16527,14 @@
         <v>6.126433333333335</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>6.15</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L396" t="inlineStr">
         <is>
@@ -16792,16 +16568,14 @@
         <v>6.126983333333334</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>6.151</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L397" t="inlineStr">
         <is>
@@ -16835,16 +16609,14 @@
         <v>6.128366666666667</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="n">
-        <v>6.156</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L398" t="inlineStr">
         <is>
@@ -16878,16 +16650,14 @@
         <v>6.129666666666668</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="n">
-        <v>6.182</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L399" t="inlineStr">
         <is>
@@ -16921,16 +16691,14 @@
         <v>6.130750000000002</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
       </c>
-      <c r="J400" t="n">
-        <v>6.198</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L400" t="inlineStr">
         <is>
@@ -16964,16 +16732,14 @@
         <v>6.132850000000001</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
       </c>
-      <c r="J401" t="n">
-        <v>6.193</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L401" t="inlineStr">
         <is>
@@ -17007,16 +16773,14 @@
         <v>6.134166666666668</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="n">
-        <v>6.193</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L402" t="inlineStr">
         <is>
@@ -17050,16 +16814,14 @@
         <v>6.136050000000001</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="n">
-        <v>6.198</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L403" t="inlineStr">
         <is>
@@ -17093,16 +16855,14 @@
         <v>6.138383333333334</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="n">
-        <v>6.199</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L404" t="inlineStr">
         <is>
@@ -17136,16 +16896,14 @@
         <v>6.139833333333334</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
       </c>
-      <c r="J405" t="n">
-        <v>6.201</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L405" t="inlineStr">
         <is>
@@ -17186,7 +16944,7 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L406" t="inlineStr">
         <is>
@@ -17227,7 +16985,7 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L407" t="inlineStr">
         <is>
@@ -17261,16 +17019,14 @@
         <v>6.146233333333333</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
       </c>
-      <c r="J408" t="n">
-        <v>6.192</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L408" t="inlineStr">
         <is>
@@ -17311,7 +17067,7 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L409" t="inlineStr">
         <is>
@@ -17352,7 +17108,7 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L410" t="inlineStr">
         <is>
@@ -17393,7 +17149,7 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L411" t="inlineStr">
         <is>
@@ -17434,7 +17190,7 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L412" t="inlineStr">
         <is>
@@ -17475,7 +17231,7 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
@@ -17516,7 +17272,7 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
@@ -17557,7 +17313,7 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
@@ -17598,7 +17354,7 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -17639,7 +17395,7 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -17680,7 +17436,7 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>
@@ -17721,7 +17477,7 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -17762,7 +17518,7 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -17803,7 +17559,7 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -17844,7 +17600,7 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -17885,7 +17641,7 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L423" t="inlineStr">
         <is>
@@ -17926,7 +17682,7 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L424" t="inlineStr">
         <is>
@@ -17967,7 +17723,7 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L425" t="inlineStr">
         <is>
@@ -18008,7 +17764,7 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
@@ -18049,7 +17805,7 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
@@ -18090,7 +17846,7 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
@@ -18131,7 +17887,7 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
@@ -18172,7 +17928,7 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
@@ -18213,7 +17969,7 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L431" t="inlineStr">
         <is>
@@ -18254,7 +18010,7 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
@@ -18295,7 +18051,7 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
@@ -18336,7 +18092,7 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
@@ -18377,7 +18133,7 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
@@ -18418,7 +18174,7 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
@@ -18459,7 +18215,7 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
@@ -18500,7 +18256,7 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
@@ -18541,7 +18297,7 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L439" t="inlineStr">
         <is>
@@ -18582,7 +18338,7 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L440" t="inlineStr">
         <is>
@@ -18623,7 +18379,7 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L441" t="inlineStr">
         <is>
@@ -18664,7 +18420,7 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L442" t="inlineStr">
         <is>
@@ -18705,7 +18461,7 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L443" t="inlineStr">
         <is>
@@ -18746,7 +18502,7 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L444" t="inlineStr">
         <is>
@@ -18787,7 +18543,7 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L445" t="inlineStr">
         <is>
@@ -18828,7 +18584,7 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L446" t="inlineStr">
         <is>
@@ -18869,7 +18625,7 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L447" t="inlineStr">
         <is>
@@ -18910,7 +18666,7 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L448" t="inlineStr">
         <is>
@@ -18951,7 +18707,7 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L449" t="inlineStr">
         <is>
@@ -18992,7 +18748,7 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L450" t="inlineStr">
         <is>
@@ -19033,7 +18789,7 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L451" t="inlineStr">
         <is>
@@ -19074,7 +18830,7 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L452" t="inlineStr">
         <is>
@@ -19115,7 +18871,7 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L453" t="inlineStr">
         <is>
@@ -19156,7 +18912,7 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L454" t="inlineStr">
         <is>
@@ -19197,7 +18953,7 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L455" t="inlineStr">
         <is>
@@ -19238,7 +18994,7 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L456" t="inlineStr">
         <is>
@@ -19279,7 +19035,7 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L457" t="inlineStr">
         <is>
@@ -19320,7 +19076,7 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L458" t="inlineStr">
         <is>
@@ -19361,7 +19117,7 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L459" t="inlineStr">
         <is>
@@ -19402,7 +19158,7 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L460" t="inlineStr">
         <is>
@@ -19443,7 +19199,7 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L461" t="inlineStr">
         <is>
@@ -19484,7 +19240,7 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L462" t="inlineStr">
         <is>
@@ -19525,7 +19281,7 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L463" t="inlineStr">
         <is>
@@ -19566,7 +19322,7 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L464" t="inlineStr">
         <is>
@@ -19607,7 +19363,7 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L465" t="inlineStr">
         <is>
@@ -19648,7 +19404,7 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L466" t="inlineStr">
         <is>
@@ -19689,7 +19445,7 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L467" t="inlineStr">
         <is>
@@ -19730,7 +19486,7 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L468" t="inlineStr">
         <is>
@@ -19771,7 +19527,7 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L469" t="inlineStr">
         <is>
@@ -19812,7 +19568,7 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L470" t="inlineStr">
         <is>
@@ -19853,7 +19609,7 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L471" t="inlineStr">
         <is>
@@ -19894,7 +19650,7 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L472" t="inlineStr">
         <is>
@@ -19935,7 +19691,7 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L473" t="inlineStr">
         <is>
@@ -19976,7 +19732,7 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L474" t="inlineStr">
         <is>
@@ -20017,7 +19773,7 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L475" t="inlineStr">
         <is>
@@ -20058,7 +19814,7 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L476" t="inlineStr">
         <is>
@@ -20099,7 +19855,7 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L477" t="inlineStr">
         <is>
@@ -20140,7 +19896,7 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L478" t="inlineStr">
         <is>
@@ -20181,7 +19937,7 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L479" t="inlineStr">
         <is>
@@ -20222,7 +19978,7 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L480" t="inlineStr">
         <is>
@@ -20263,7 +20019,7 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L481" t="inlineStr">
         <is>
@@ -20304,7 +20060,7 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L482" t="inlineStr">
         <is>
@@ -20345,7 +20101,7 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L483" t="inlineStr">
         <is>
@@ -20386,7 +20142,7 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L484" t="inlineStr">
         <is>
@@ -20427,7 +20183,7 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L485" t="inlineStr">
         <is>
@@ -20468,7 +20224,7 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L486" t="inlineStr">
         <is>
@@ -20509,7 +20265,7 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L487" t="inlineStr">
         <is>
@@ -20550,7 +20306,7 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L488" t="inlineStr">
         <is>
@@ -20591,7 +20347,7 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L489" t="inlineStr">
         <is>
@@ -20632,7 +20388,7 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L490" t="inlineStr">
         <is>
@@ -20673,7 +20429,7 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L491" t="inlineStr">
         <is>
@@ -20714,7 +20470,7 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L492" t="inlineStr">
         <is>
@@ -20755,7 +20511,7 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L493" t="inlineStr">
         <is>
@@ -20796,7 +20552,7 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L494" t="inlineStr">
         <is>
@@ -20837,7 +20593,7 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L495" t="inlineStr">
         <is>
@@ -20878,7 +20634,7 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L496" t="inlineStr">
         <is>
@@ -20919,7 +20675,7 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L497" t="inlineStr">
         <is>
@@ -20960,7 +20716,7 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L498" t="inlineStr">
         <is>
@@ -21001,7 +20757,7 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L499" t="inlineStr">
         <is>
@@ -21042,7 +20798,7 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L500" t="inlineStr">
         <is>
@@ -21083,7 +20839,7 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L501" t="inlineStr">
         <is>
@@ -21124,7 +20880,7 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L502" t="inlineStr">
         <is>
@@ -21165,7 +20921,7 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L503" t="inlineStr">
         <is>
@@ -21206,7 +20962,7 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L504" t="inlineStr">
         <is>
@@ -21247,7 +21003,7 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L505" t="inlineStr">
         <is>
@@ -21288,7 +21044,7 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L506" t="inlineStr">
         <is>
@@ -21329,7 +21085,7 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L507" t="inlineStr">
         <is>
@@ -21370,7 +21126,7 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L508" t="inlineStr">
         <is>
@@ -21411,7 +21167,7 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L509" t="inlineStr">
         <is>
@@ -21452,7 +21208,7 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L510" t="inlineStr">
         <is>
@@ -21493,7 +21249,7 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L511" t="inlineStr">
         <is>
@@ -21534,7 +21290,7 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L512" t="inlineStr">
         <is>
@@ -21575,7 +21331,7 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L513" t="inlineStr">
         <is>
@@ -21616,7 +21372,7 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L514" t="inlineStr">
         <is>
@@ -21657,7 +21413,7 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L515" t="inlineStr">
         <is>
@@ -21698,7 +21454,7 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L516" t="inlineStr">
         <is>
@@ -21739,7 +21495,7 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L517" t="inlineStr">
         <is>
@@ -21780,7 +21536,7 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L518" t="inlineStr">
         <is>
@@ -21821,7 +21577,7 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L519" t="inlineStr">
         <is>
@@ -21862,7 +21618,7 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L520" t="inlineStr">
         <is>
@@ -21903,7 +21659,7 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L521" t="inlineStr">
         <is>
@@ -21944,7 +21700,7 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L522" t="inlineStr">
         <is>
@@ -21985,7 +21741,7 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L523" t="inlineStr">
         <is>
@@ -22026,7 +21782,7 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L524" t="inlineStr">
         <is>
@@ -22067,7 +21823,7 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L525" t="inlineStr">
         <is>
@@ -22108,7 +21864,7 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L526" t="inlineStr">
         <is>
@@ -22149,7 +21905,7 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L527" t="inlineStr">
         <is>
@@ -22190,7 +21946,7 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L528" t="inlineStr">
         <is>
@@ -22231,7 +21987,7 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L529" t="inlineStr">
         <is>
@@ -22272,7 +22028,7 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L530" t="inlineStr">
         <is>
@@ -22313,7 +22069,7 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L531" t="inlineStr">
         <is>
@@ -22354,7 +22110,7 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L532" t="inlineStr">
         <is>
@@ -22395,7 +22151,7 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L533" t="inlineStr">
         <is>
@@ -22436,7 +22192,7 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L534" t="inlineStr">
         <is>
@@ -22477,7 +22233,7 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L535" t="inlineStr">
         <is>
@@ -22518,7 +22274,7 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L536" t="inlineStr">
         <is>
@@ -22559,7 +22315,7 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L537" t="inlineStr">
         <is>
@@ -22600,7 +22356,7 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L538" t="inlineStr">
         <is>
@@ -22641,7 +22397,7 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L539" t="inlineStr">
         <is>
@@ -22682,7 +22438,7 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L540" t="inlineStr">
         <is>
@@ -22723,7 +22479,7 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L541" t="inlineStr">
         <is>
@@ -22764,7 +22520,7 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L542" t="inlineStr">
         <is>
@@ -22805,7 +22561,7 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L543" t="inlineStr">
         <is>
@@ -22846,7 +22602,7 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L544" t="inlineStr">
         <is>
@@ -22887,7 +22643,7 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L545" t="inlineStr">
         <is>
@@ -22928,7 +22684,7 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L546" t="inlineStr">
         <is>
@@ -22969,7 +22725,7 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L547" t="inlineStr">
         <is>
@@ -23010,7 +22766,7 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L548" t="inlineStr">
         <is>
@@ -23051,7 +22807,7 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L549" t="inlineStr">
         <is>
@@ -23092,7 +22848,7 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L550" t="inlineStr">
         <is>
@@ -23133,7 +22889,7 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L551" t="inlineStr">
         <is>
@@ -23174,7 +22930,7 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L552" t="inlineStr">
         <is>
@@ -23215,7 +22971,7 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L553" t="inlineStr">
         <is>
@@ -23256,7 +23012,7 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L554" t="inlineStr">
         <is>
@@ -23297,7 +23053,7 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L555" t="inlineStr">
         <is>
@@ -23338,7 +23094,7 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L556" t="inlineStr">
         <is>
@@ -23379,7 +23135,7 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L557" t="inlineStr">
         <is>
@@ -23420,7 +23176,7 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L558" t="inlineStr">
         <is>
@@ -23461,7 +23217,7 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L559" t="inlineStr">
         <is>
@@ -23502,7 +23258,7 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L560" t="inlineStr">
         <is>
@@ -23543,7 +23299,7 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L561" t="inlineStr">
         <is>
@@ -23584,7 +23340,7 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L562" t="inlineStr">
         <is>
@@ -23625,7 +23381,7 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L563" t="inlineStr">
         <is>
@@ -23666,7 +23422,7 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L564" t="inlineStr">
         <is>
@@ -23707,7 +23463,7 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L565" t="inlineStr">
         <is>
@@ -23748,7 +23504,7 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L566" t="inlineStr">
         <is>
@@ -23789,7 +23545,7 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L567" t="inlineStr">
         <is>
@@ -23830,7 +23586,7 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L568" t="inlineStr">
         <is>
@@ -23871,7 +23627,7 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L569" t="inlineStr">
         <is>
@@ -23912,7 +23668,7 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L570" t="inlineStr">
         <is>
@@ -23953,7 +23709,7 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L571" t="inlineStr">
         <is>
@@ -23994,7 +23750,7 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L572" t="inlineStr">
         <is>
@@ -24035,7 +23791,7 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L573" t="inlineStr">
         <is>
@@ -24076,7 +23832,7 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L574" t="inlineStr">
         <is>
@@ -24117,7 +23873,7 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L575" t="inlineStr">
         <is>
@@ -24158,7 +23914,7 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L576" t="inlineStr">
         <is>
@@ -24199,7 +23955,7 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L577" t="inlineStr">
         <is>
@@ -24240,7 +23996,7 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L578" t="inlineStr">
         <is>
@@ -24281,7 +24037,7 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L579" t="inlineStr">
         <is>
@@ -24322,7 +24078,7 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L580" t="inlineStr">
         <is>
@@ -24363,7 +24119,7 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L581" t="inlineStr">
         <is>
@@ -24404,7 +24160,7 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L582" t="inlineStr">
         <is>
@@ -24445,7 +24201,7 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L583" t="inlineStr">
         <is>
@@ -24486,7 +24242,7 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L584" t="inlineStr">
         <is>
@@ -24527,7 +24283,7 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L585" t="inlineStr">
         <is>
@@ -24568,7 +24324,7 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L586" t="inlineStr">
         <is>
@@ -24609,7 +24365,7 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L587" t="inlineStr">
         <is>
@@ -24650,7 +24406,7 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L588" t="inlineStr">
         <is>
@@ -24691,7 +24447,7 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L589" t="inlineStr">
         <is>
@@ -24732,7 +24488,7 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L590" t="inlineStr">
         <is>
@@ -24773,7 +24529,7 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L591" t="inlineStr">
         <is>
@@ -24814,7 +24570,7 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L592" t="inlineStr">
         <is>
@@ -24855,7 +24611,7 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L593" t="inlineStr">
         <is>
@@ -24896,7 +24652,7 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L594" t="inlineStr">
         <is>
@@ -24937,7 +24693,7 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L595" t="inlineStr">
         <is>
@@ -24978,7 +24734,7 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L596" t="inlineStr">
         <is>
@@ -25019,7 +24775,7 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L597" t="inlineStr">
         <is>
@@ -25060,7 +24816,7 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L598" t="inlineStr">
         <is>
@@ -25101,7 +24857,7 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L599" t="inlineStr">
         <is>
@@ -25142,7 +24898,7 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L600" t="inlineStr">
         <is>
@@ -25183,7 +24939,7 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L601" t="inlineStr">
         <is>
@@ -25224,7 +24980,7 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L602" t="inlineStr">
         <is>
@@ -25265,7 +25021,7 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L603" t="inlineStr">
         <is>
@@ -25306,7 +25062,7 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L604" t="inlineStr">
         <is>
@@ -25347,7 +25103,7 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L605" t="inlineStr">
         <is>
@@ -25388,7 +25144,7 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L606" t="inlineStr">
         <is>
@@ -25429,7 +25185,7 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L607" t="inlineStr">
         <is>
@@ -25470,7 +25226,7 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L608" t="inlineStr">
         <is>
@@ -25511,7 +25267,7 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L609" t="inlineStr">
         <is>
@@ -25552,7 +25308,7 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L610" t="inlineStr">
         <is>
@@ -25593,7 +25349,7 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L611" t="inlineStr">
         <is>
@@ -25634,7 +25390,7 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L612" t="inlineStr">
         <is>
@@ -25675,7 +25431,7 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L613" t="inlineStr">
         <is>
@@ -25716,7 +25472,7 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L614" t="inlineStr">
         <is>
@@ -25757,7 +25513,7 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L615" t="inlineStr">
         <is>
@@ -25798,7 +25554,7 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L616" t="inlineStr">
         <is>
@@ -25839,7 +25595,7 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L617" t="inlineStr">
         <is>
@@ -25880,7 +25636,7 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L618" t="inlineStr">
         <is>
@@ -25921,7 +25677,7 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L619" t="inlineStr">
         <is>
@@ -25962,7 +25718,7 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L620" t="inlineStr">
         <is>
@@ -26003,7 +25759,7 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L621" t="inlineStr">
         <is>
@@ -26044,7 +25800,7 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L622" t="inlineStr">
         <is>
@@ -26085,7 +25841,7 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L623" t="inlineStr">
         <is>
@@ -26126,7 +25882,7 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L624" t="inlineStr">
         <is>
@@ -26167,7 +25923,7 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L625" t="inlineStr">
         <is>
@@ -26208,7 +25964,7 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L626" t="inlineStr">
         <is>
@@ -26249,7 +26005,7 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L627" t="inlineStr">
         <is>
@@ -26290,7 +26046,7 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L628" t="inlineStr">
         <is>
@@ -26331,7 +26087,7 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L629" t="inlineStr">
         <is>
@@ -26372,7 +26128,7 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L630" t="inlineStr">
         <is>
@@ -26413,7 +26169,7 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L631" t="inlineStr">
         <is>
@@ -26454,7 +26210,7 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L632" t="inlineStr">
         <is>
@@ -26495,7 +26251,7 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L633" t="inlineStr">
         <is>
@@ -26536,7 +26292,7 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L634" t="inlineStr">
         <is>
@@ -26577,7 +26333,7 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L635" t="inlineStr">
         <is>
@@ -26618,7 +26374,7 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L636" t="inlineStr">
         <is>
@@ -26659,7 +26415,7 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L637" t="inlineStr">
         <is>
@@ -26700,7 +26456,7 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L638" t="inlineStr">
         <is>
@@ -26741,7 +26497,7 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L639" t="inlineStr">
         <is>
@@ -26782,7 +26538,7 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L640" t="inlineStr">
         <is>
@@ -26823,7 +26579,7 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L641" t="inlineStr">
         <is>
@@ -26864,7 +26620,7 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L642" t="inlineStr">
         <is>
@@ -26905,7 +26661,7 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L643" t="inlineStr">
         <is>
@@ -26946,7 +26702,7 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L644" t="inlineStr">
         <is>
@@ -26987,7 +26743,7 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L645" t="inlineStr">
         <is>
@@ -27028,7 +26784,7 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L646" t="inlineStr">
         <is>
@@ -27069,7 +26825,7 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L647" t="inlineStr">
         <is>
@@ -27110,7 +26866,7 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L648" t="inlineStr">
         <is>
@@ -27151,7 +26907,7 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L649" t="inlineStr">
         <is>
@@ -27192,7 +26948,7 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L650" t="inlineStr">
         <is>
@@ -27233,7 +26989,7 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L651" t="inlineStr">
         <is>
@@ -27274,7 +27030,7 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L652" t="inlineStr">
         <is>
@@ -27315,7 +27071,7 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L653" t="inlineStr">
         <is>
@@ -27356,7 +27112,7 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L654" t="inlineStr">
         <is>
@@ -27397,7 +27153,7 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L655" t="inlineStr">
         <is>
@@ -27438,7 +27194,7 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L656" t="inlineStr">
         <is>
@@ -27479,7 +27235,7 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L657" t="inlineStr">
         <is>
@@ -27520,7 +27276,7 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L658" t="inlineStr">
         <is>
@@ -27561,7 +27317,7 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L659" t="inlineStr">
         <is>
@@ -27602,7 +27358,7 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L660" t="inlineStr">
         <is>
@@ -27643,7 +27399,7 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L661" t="inlineStr">
         <is>
@@ -27684,7 +27440,7 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L662" t="inlineStr">
         <is>
@@ -27725,7 +27481,7 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L663" t="inlineStr">
         <is>
@@ -27766,7 +27522,7 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L664" t="inlineStr">
         <is>
@@ -27807,7 +27563,7 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L665" t="inlineStr">
         <is>
@@ -27848,7 +27604,7 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L666" t="inlineStr">
         <is>
@@ -27889,7 +27645,7 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L667" t="inlineStr">
         <is>
@@ -27930,7 +27686,7 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L668" t="inlineStr">
         <is>
@@ -27971,7 +27727,7 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L669" t="inlineStr">
         <is>
@@ -28012,7 +27768,7 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L670" t="inlineStr">
         <is>
@@ -28053,7 +27809,7 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L671" t="inlineStr">
         <is>
@@ -28094,7 +27850,7 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L672" t="inlineStr">
         <is>
@@ -28135,7 +27891,7 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L673" t="inlineStr">
         <is>
@@ -28176,7 +27932,7 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L674" t="inlineStr">
         <is>
@@ -28217,7 +27973,7 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L675" t="inlineStr">
         <is>
@@ -28258,7 +28014,7 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L676" t="inlineStr">
         <is>
@@ -28299,7 +28055,7 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L677" t="inlineStr">
         <is>
@@ -28340,7 +28096,7 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L678" t="inlineStr">
         <is>
@@ -28381,7 +28137,7 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L679" t="inlineStr">
         <is>
@@ -28422,7 +28178,7 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L680" t="inlineStr">
         <is>
@@ -28463,7 +28219,7 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L681" t="inlineStr">
         <is>
@@ -28504,7 +28260,7 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L682" t="inlineStr">
         <is>
@@ -28545,7 +28301,7 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L683" t="inlineStr">
         <is>
@@ -28586,7 +28342,7 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L684" t="inlineStr">
         <is>
@@ -28627,7 +28383,7 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L685" t="inlineStr">
         <is>
@@ -28668,7 +28424,7 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L686" t="inlineStr">
         <is>
@@ -28709,7 +28465,7 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L687" t="inlineStr">
         <is>
@@ -28750,7 +28506,7 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L688" t="inlineStr">
         <is>
@@ -28791,7 +28547,7 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L689" t="inlineStr">
         <is>
@@ -28832,7 +28588,7 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L690" t="inlineStr">
         <is>
@@ -28873,7 +28629,7 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L691" t="inlineStr">
         <is>
@@ -28914,7 +28670,7 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L692" t="inlineStr">
         <is>
@@ -28955,7 +28711,7 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L693" t="inlineStr">
         <is>
@@ -28996,7 +28752,7 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L694" t="inlineStr">
         <is>
@@ -29037,7 +28793,7 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L695" t="inlineStr">
         <is>
@@ -29078,7 +28834,7 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L696" t="inlineStr">
         <is>
@@ -29119,7 +28875,7 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L697" t="inlineStr">
         <is>
@@ -29160,7 +28916,7 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L698" t="inlineStr">
         <is>
@@ -29201,7 +28957,7 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L699" t="inlineStr">
         <is>
@@ -29242,7 +28998,7 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L700" t="inlineStr">
         <is>
@@ -29283,7 +29039,7 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L701" t="inlineStr">
         <is>
@@ -29324,7 +29080,7 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L702" t="inlineStr">
         <is>
@@ -29365,7 +29121,7 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L703" t="inlineStr">
         <is>
@@ -29406,7 +29162,7 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L704" t="inlineStr">
         <is>
@@ -29447,7 +29203,7 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L705" t="inlineStr">
         <is>
@@ -29488,7 +29244,7 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L706" t="inlineStr">
         <is>
@@ -29529,7 +29285,7 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L707" t="inlineStr">
         <is>
@@ -29570,7 +29326,7 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L708" t="inlineStr">
         <is>
@@ -29611,7 +29367,7 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L709" t="inlineStr">
         <is>
@@ -29652,7 +29408,7 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L710" t="inlineStr">
         <is>
@@ -29693,7 +29449,7 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L711" t="inlineStr">
         <is>
@@ -29734,7 +29490,7 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L712" t="inlineStr">
         <is>
@@ -29775,7 +29531,7 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L713" t="inlineStr">
         <is>
@@ -29816,7 +29572,7 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L714" t="inlineStr">
         <is>
@@ -29857,7 +29613,7 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L715" t="inlineStr">
         <is>
@@ -29898,7 +29654,7 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L716" t="inlineStr">
         <is>
@@ -29939,7 +29695,7 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L717" t="inlineStr">
         <is>
@@ -29980,7 +29736,7 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L718" t="inlineStr">
         <is>
@@ -30021,7 +29777,7 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L719" t="inlineStr">
         <is>
@@ -30062,7 +29818,7 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L720" t="inlineStr">
         <is>
@@ -30103,7 +29859,7 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L721" t="inlineStr">
         <is>
@@ -30144,7 +29900,7 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L722" t="inlineStr">
         <is>
@@ -30185,7 +29941,7 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L723" t="inlineStr">
         <is>
@@ -30226,7 +29982,7 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L724" t="inlineStr">
         <is>
@@ -30267,7 +30023,7 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L725" t="inlineStr">
         <is>
@@ -30308,7 +30064,7 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L726" t="inlineStr">
         <is>
@@ -30349,7 +30105,7 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L727" t="inlineStr">
         <is>
@@ -30390,7 +30146,7 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L728" t="inlineStr">
         <is>
@@ -30431,7 +30187,7 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L729" t="inlineStr">
         <is>
@@ -30472,7 +30228,7 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L730" t="inlineStr">
         <is>
@@ -30513,7 +30269,7 @@
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L731" t="inlineStr">
         <is>
@@ -30554,7 +30310,7 @@
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L732" t="inlineStr">
         <is>
@@ -30595,7 +30351,7 @@
       </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L733" t="inlineStr">
         <is>
@@ -30636,7 +30392,7 @@
       </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L734" t="inlineStr">
         <is>
@@ -30677,7 +30433,7 @@
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L735" t="inlineStr">
         <is>
@@ -30718,7 +30474,7 @@
       </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L736" t="inlineStr">
         <is>
@@ -30759,7 +30515,7 @@
       </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L737" t="inlineStr">
         <is>
@@ -30800,7 +30556,7 @@
       </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L738" t="inlineStr">
         <is>
@@ -30841,7 +30597,7 @@
       </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L739" t="inlineStr">
         <is>
@@ -30882,7 +30638,7 @@
       </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L740" t="inlineStr">
         <is>
@@ -30923,7 +30679,7 @@
       </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L741" t="inlineStr">
         <is>
@@ -30964,7 +30720,7 @@
       </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L742" t="inlineStr">
         <is>
@@ -31005,7 +30761,7 @@
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L743" t="inlineStr">
         <is>
@@ -31046,7 +30802,7 @@
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L744" t="inlineStr">
         <is>
@@ -31087,7 +30843,7 @@
       </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L745" t="inlineStr">
         <is>
@@ -31128,7 +30884,7 @@
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L746" t="inlineStr">
         <is>
@@ -31169,7 +30925,7 @@
       </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L747" t="inlineStr">
         <is>
@@ -31210,7 +30966,7 @@
       </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L748" t="inlineStr">
         <is>
@@ -31251,7 +31007,7 @@
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L749" t="inlineStr">
         <is>
@@ -31292,7 +31048,7 @@
       </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L750" t="inlineStr">
         <is>
@@ -31333,7 +31089,7 @@
       </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L751" t="inlineStr">
         <is>
@@ -31374,7 +31130,7 @@
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L752" t="inlineStr">
         <is>
@@ -31415,7 +31171,7 @@
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L753" t="inlineStr">
         <is>
@@ -31456,7 +31212,7 @@
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L754" t="inlineStr">
         <is>
@@ -31497,7 +31253,7 @@
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L755" t="inlineStr">
         <is>
@@ -31538,7 +31294,7 @@
       </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L756" t="inlineStr">
         <is>
@@ -31579,7 +31335,7 @@
       </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L757" t="inlineStr">
         <is>
@@ -31620,7 +31376,7 @@
       </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L758" t="inlineStr">
         <is>
@@ -31661,7 +31417,7 @@
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L759" t="inlineStr">
         <is>
@@ -31702,7 +31458,7 @@
       </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L760" t="inlineStr">
         <is>
@@ -31743,7 +31499,7 @@
       </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L761" t="inlineStr">
         <is>
@@ -31784,7 +31540,7 @@
       </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L762" t="inlineStr">
         <is>
@@ -31825,7 +31581,7 @@
       </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L763" t="inlineStr">
         <is>
@@ -31866,7 +31622,7 @@
       </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L764" t="inlineStr">
         <is>
@@ -31907,7 +31663,7 @@
       </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L765" t="inlineStr">
         <is>
@@ -31948,7 +31704,7 @@
       </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L766" t="inlineStr">
         <is>
@@ -31989,7 +31745,7 @@
       </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L767" t="inlineStr">
         <is>
@@ -32030,7 +31786,7 @@
       </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L768" t="inlineStr">
         <is>
@@ -32071,7 +31827,7 @@
       </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L769" t="inlineStr">
         <is>
@@ -32112,7 +31868,7 @@
       </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L770" t="inlineStr">
         <is>
@@ -32153,7 +31909,7 @@
       </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L771" t="inlineStr">
         <is>
@@ -32194,7 +31950,7 @@
       </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L772" t="inlineStr">
         <is>
@@ -32235,7 +31991,7 @@
       </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L773" t="inlineStr">
         <is>
@@ -32276,7 +32032,7 @@
       </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L774" t="inlineStr">
         <is>
@@ -32317,7 +32073,7 @@
       </c>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L775" t="inlineStr">
         <is>
@@ -32358,7 +32114,7 @@
       </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L776" t="inlineStr">
         <is>
@@ -32399,7 +32155,7 @@
       </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L777" t="inlineStr">
         <is>
@@ -32440,7 +32196,7 @@
       </c>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L778" t="inlineStr">
         <is>
@@ -32481,7 +32237,7 @@
       </c>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L779" t="inlineStr">
         <is>
@@ -32522,7 +32278,7 @@
       </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L780" t="inlineStr">
         <is>
@@ -32563,7 +32319,7 @@
       </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L781" t="inlineStr">
         <is>
@@ -32604,7 +32360,7 @@
       </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L782" t="inlineStr">
         <is>
@@ -32645,7 +32401,7 @@
       </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L783" t="inlineStr">
         <is>
@@ -32686,7 +32442,7 @@
       </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L784" t="inlineStr">
         <is>
@@ -32727,7 +32483,7 @@
       </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L785" t="inlineStr">
         <is>
@@ -32768,7 +32524,7 @@
       </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L786" t="inlineStr">
         <is>
@@ -32809,7 +32565,7 @@
       </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L787" t="inlineStr">
         <is>
@@ -32850,7 +32606,7 @@
       </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L788" t="inlineStr">
         <is>
@@ -32891,7 +32647,7 @@
       </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L789" t="inlineStr">
         <is>
@@ -32932,7 +32688,7 @@
       </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L790" t="inlineStr">
         <is>
@@ -32973,7 +32729,7 @@
       </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L791" t="inlineStr">
         <is>
@@ -33014,7 +32770,7 @@
       </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L792" t="inlineStr">
         <is>
@@ -33055,7 +32811,7 @@
       </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L793" t="inlineStr">
         <is>
@@ -33096,7 +32852,7 @@
       </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L794" t="inlineStr">
         <is>
@@ -33137,7 +32893,7 @@
       </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L795" t="inlineStr">
         <is>
@@ -33178,7 +32934,7 @@
       </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L796" t="inlineStr">
         <is>
@@ -33215,19 +32971,19 @@
         <v>0</v>
       </c>
       <c r="I797" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="n">
-        <v>6.134</v>
+        <v>6.164</v>
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M797" t="n">
-        <v>1</v>
+        <v>1.139224529526282</v>
       </c>
     </row>
     <row r="798">
@@ -33256,17 +33012,11 @@
         <v>0</v>
       </c>
       <c r="I798" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="n">
-        <v>6.134</v>
-      </c>
-      <c r="L798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
+      <c r="L798" t="inlineStr"/>
       <c r="M798" t="n">
         <v>1</v>
       </c>
@@ -33297,19 +33047,13 @@
         <v>0</v>
       </c>
       <c r="I799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="n">
-        <v>6.134</v>
-      </c>
-      <c r="L799" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
+      <c r="L799" t="inlineStr"/>
       <c r="M799" t="n">
-        <v>1.113356700358657</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800">
@@ -33338,7 +33082,7 @@
         <v>0</v>
       </c>
       <c r="I800" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr"/>
@@ -34108,7 +33852,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr"/>
@@ -34493,7 +34237,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr"/>
@@ -34563,7 +34307,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr"/>
@@ -34598,7 +34342,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr"/>
@@ -34633,7 +34377,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest XSR.xlsx
+++ b/BackTest/2020-01-11 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3302506.324999999</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3302506.324999999</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3133076.580299999</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3861098.841899999</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-5420309.967499999</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-6661288.254799999</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-5711047.939699999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-5711047.939699999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-5062580.415099999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-5104986.832899999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-5281139.782199999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-5291587.490999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-6530154.675299999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-7069646.775099999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-7178085.720699999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-7692583.881399999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-7960482.1981</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-7960482.1981</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-8854856.0437</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-8854856.0437</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-10283718.1536</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-11149612.4914</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-11660390.6104</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-11589701.0474</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-11855920.5622</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-11855920.5622</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-12494844.2165</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-10705519.4765</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-10309249.5467</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-11204262.45126407</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-10848963.37936407</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-10701690.75696407</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-11294070.27046407</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -8734,17 +8734,11 @@
         <v>-25931265.72765888</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>6.115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8773,17 +8767,11 @@
         <v>-25931265.72765888</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>6.117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8812,17 +8800,11 @@
         <v>-26378461.89795888</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>6.117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8851,17 +8833,11 @@
         <v>-26396599.06525888</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>6.116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8890,17 +8866,15 @@
         <v>-26335207.67025888</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>6.1</v>
       </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8929,15 +8903,17 @@
         <v>-26510161.06355888</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>6.119</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L258" t="n">
@@ -8968,15 +8944,17 @@
         <v>-26510161.06355888</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>6.1</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L259" t="n">
@@ -9007,15 +8985,17 @@
         <v>-26866971.60915888</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>6.1</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L260" t="n">
@@ -9046,12 +9026,14 @@
         <v>-26866881.60915888</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>6.078</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9085,12 +9067,14 @@
         <v>-27242446.53065888</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>6.094</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9124,12 +9108,12 @@
         <v>-27253744.88135888</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>6.073</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9163,10 +9147,14 @@
         <v>-27734854.19295888</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>6.072</v>
+      </c>
+      <c r="J264" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9200,10 +9188,14 @@
         <v>-27734854.19295888</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>6.016</v>
+      </c>
+      <c r="J265" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9237,12 +9229,14 @@
         <v>-27472031.30445888</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>6.016</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9276,12 +9270,14 @@
         <v>-27471478.29215888</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>6.07</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9315,12 +9311,14 @@
         <v>-27721677.31175888</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>6.073</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9354,12 +9352,14 @@
         <v>-27261767.10145888</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>6.025</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9393,12 +9393,14 @@
         <v>-27196529.03875888</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>6.042</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9432,12 +9434,14 @@
         <v>-27196529.03875888</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>6.09</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9471,12 +9475,14 @@
         <v>-27719764.90515888</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>6.09</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9510,12 +9516,14 @@
         <v>-27579779.65605888</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>6.051</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9549,12 +9557,14 @@
         <v>-27502210.75985888</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>6.053</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9588,12 +9598,14 @@
         <v>-27105641.75045888</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>6.092</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9627,12 +9639,14 @@
         <v>-27697790.99025888</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>6.094</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9666,12 +9680,14 @@
         <v>-27495319.11735888</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>6.012</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9705,12 +9721,14 @@
         <v>-27198101.64315888</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>6.057</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9744,12 +9762,14 @@
         <v>-27231601.64315888</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>6.069</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9783,12 +9803,14 @@
         <v>-27775015.81705888</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>6.016</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9822,12 +9844,14 @@
         <v>-28185065.64845888</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>6.01</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9861,12 +9885,14 @@
         <v>-28185065.64845888</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>6.009</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9900,12 +9926,14 @@
         <v>-28163995.22665888</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>6.009</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9939,12 +9967,14 @@
         <v>-27647364.53845888</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>6.038</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9978,12 +10008,14 @@
         <v>-27647364.53845888</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>6.041</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10017,12 +10049,14 @@
         <v>-28181080.89045888</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>6.041</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10056,12 +10090,14 @@
         <v>-28555769.01495888</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>6.03</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10095,12 +10131,14 @@
         <v>-28555769.01495888</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>6.011</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10134,12 +10172,14 @@
         <v>-27936352.80375888</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>6.011</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10173,12 +10213,14 @@
         <v>-27898458.87345888</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>6.029</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10212,12 +10254,14 @@
         <v>-28124671.05505888</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>6.09</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10251,12 +10295,14 @@
         <v>-28106529.03275888</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>6.072</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10290,12 +10336,14 @@
         <v>-28117302.50535888</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>6.078</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10329,12 +10377,14 @@
         <v>-28319919.63385888</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>6.072</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10368,12 +10418,14 @@
         <v>-28818308.69125888</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>6.059</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10407,12 +10459,14 @@
         <v>-28801431.37365888</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>6.03</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10446,12 +10500,14 @@
         <v>-29009766.50665888</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>6.04</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10485,12 +10541,14 @@
         <v>-28739353.04645888</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>6.03</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10524,12 +10582,14 @@
         <v>-28728402.37045888</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>6.045</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10563,12 +10623,14 @@
         <v>-28658766.40005888</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>6.065</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10602,12 +10664,14 @@
         <v>-28658766.40005888</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>6.067</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10641,12 +10705,14 @@
         <v>-28656916.12305888</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>6.067</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10680,12 +10746,14 @@
         <v>-28831991.41365888</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>6.097</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10719,12 +10787,14 @@
         <v>-28541394.72685888</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>6.061</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10758,12 +10828,14 @@
         <v>-28538062.29095889</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>6.098</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10797,12 +10869,14 @@
         <v>-28538062.29095889</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>6.099</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10836,12 +10910,14 @@
         <v>-28550334.02865889</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>6.099</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10875,12 +10951,14 @@
         <v>-28591892.38615889</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>6.097</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10914,12 +10992,14 @@
         <v>-29071516.97335889</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>6.072</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10953,12 +11033,14 @@
         <v>-29084117.76065889</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>6.063</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10992,12 +11074,14 @@
         <v>-29081617.76065889</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>6.061</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11031,12 +11115,14 @@
         <v>-29259096.37445889</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>6.072</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11070,12 +11156,14 @@
         <v>-28945715.24935889</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>6.064</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11109,12 +11197,14 @@
         <v>-28943626.24935889</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>6.087</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11148,12 +11238,14 @@
         <v>-28943626.24935889</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>6.11</v>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11187,12 +11279,14 @@
         <v>-29153974.35635889</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>6.11</v>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11226,12 +11320,14 @@
         <v>-29369622.72245889</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>6.087</v>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11265,12 +11361,14 @@
         <v>-29378105.82465889</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>6.081</v>
       </c>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11304,12 +11402,14 @@
         <v>-29144349.60475889</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>6.069</v>
       </c>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11343,12 +11443,14 @@
         <v>-29144657.41935889</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>6.095</v>
       </c>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11382,12 +11484,14 @@
         <v>-29155667.18595889</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>6.09</v>
       </c>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11421,12 +11525,14 @@
         <v>-28900703.09785889</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>6.06</v>
       </c>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11460,12 +11566,14 @@
         <v>-29107839.38945889</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>6.094</v>
       </c>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11499,12 +11607,14 @@
         <v>-29130568.69795889</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>6.091</v>
       </c>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11538,12 +11648,14 @@
         <v>-29352942.42395889</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>6.089</v>
       </c>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11577,12 +11689,14 @@
         <v>-29342488.42395889</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>6.084</v>
       </c>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11616,12 +11730,14 @@
         <v>-29620801.34645889</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>6.089</v>
       </c>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11655,12 +11771,14 @@
         <v>-28951367.97215889</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>6.078</v>
       </c>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11694,12 +11812,14 @@
         <v>-28813719.85445889</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>6.088</v>
       </c>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11733,12 +11853,14 @@
         <v>-28091278.20085889</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>6.107</v>
       </c>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11772,10 +11894,14 @@
         <v>-27953918.15505889</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="J331" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11809,10 +11935,14 @@
         <v>-28342516.22405889</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>6.113</v>
+      </c>
+      <c r="J332" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11846,12 +11976,14 @@
         <v>-27966053.87175889</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>6.09</v>
       </c>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11885,12 +12017,14 @@
         <v>-27966053.87175889</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>6.113</v>
       </c>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11924,12 +12058,14 @@
         <v>-27966053.87175889</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>6.113</v>
       </c>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11963,12 +12099,14 @@
         <v>-27716593.31025888</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>6.113</v>
       </c>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12002,12 +12140,14 @@
         <v>-27369158.30305889</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>6.114</v>
       </c>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12041,12 +12181,14 @@
         <v>-27195930.36435888</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>6.115</v>
       </c>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12080,12 +12222,14 @@
         <v>-27507018.86475888</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>6.199</v>
       </c>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12119,12 +12263,14 @@
         <v>-27509001.29325888</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>6.161</v>
       </c>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12158,12 +12304,14 @@
         <v>-27162008.95455888</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>6.13</v>
       </c>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12197,12 +12345,14 @@
         <v>-27161797.86355888</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>6.161</v>
       </c>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12236,12 +12386,14 @@
         <v>-28153829.09755889</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>6.196</v>
       </c>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12275,12 +12427,14 @@
         <v>-28152024.22525889</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>6.139</v>
       </c>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12314,12 +12468,14 @@
         <v>-28161033.60935889</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>6.189</v>
       </c>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12353,12 +12509,14 @@
         <v>-27745981.19005889</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>6.13</v>
       </c>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12392,12 +12550,14 @@
         <v>-27729777.59555889</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>6.148</v>
       </c>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12431,12 +12591,14 @@
         <v>-27518984.53515888</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>6.155</v>
       </c>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12470,12 +12632,12 @@
         <v>-27494443.99855888</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="n">
-        <v>6.161</v>
-      </c>
-      <c r="J349" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12509,12 +12671,12 @@
         <v>-27505378.41005888</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>6.173</v>
-      </c>
-      <c r="J350" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12548,12 +12710,12 @@
         <v>-27541167.77895888</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>6.148</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12587,12 +12749,14 @@
         <v>-27965360.79265888</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>6.121</v>
       </c>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12626,12 +12790,12 @@
         <v>-28035660.06035889</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>6.111</v>
-      </c>
-      <c r="J353" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12665,12 +12829,14 @@
         <v>-28035660.06035889</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>6.09</v>
       </c>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12704,12 +12870,14 @@
         <v>-27792572.35515888</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>6.09</v>
       </c>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12743,12 +12911,14 @@
         <v>-28182856.08525888</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>6.17</v>
       </c>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12782,12 +12952,12 @@
         <v>-28596649.76815888</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="n">
-        <v>6.153</v>
-      </c>
-      <c r="J357" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12821,12 +12991,14 @@
         <v>-28591960.32545888</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>6.123</v>
       </c>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12860,12 +13032,12 @@
         <v>-28591460.32545888</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="n">
-        <v>6.124</v>
-      </c>
-      <c r="J359" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12899,12 +13071,12 @@
         <v>-28942710.67845888</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>6.152</v>
-      </c>
-      <c r="J360" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12938,12 +13110,12 @@
         <v>-28880368.51845888</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>6.151</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12977,12 +13149,12 @@
         <v>-28880368.51845888</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="n">
-        <v>6.153</v>
-      </c>
-      <c r="J362" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13016,12 +13188,12 @@
         <v>-29248142.22305888</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>6.153</v>
-      </c>
-      <c r="J363" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13055,12 +13227,12 @@
         <v>-29540494.99115888</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="J364" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13094,12 +13266,12 @@
         <v>-29694929.17385888</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J365" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13133,12 +13305,12 @@
         <v>-29757086.72595888</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="n">
-        <v>6.132</v>
-      </c>
-      <c r="J366" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13175,7 +13347,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13209,12 +13383,12 @@
         <v>-31996959.53825888</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="n">
-        <v>6.099</v>
-      </c>
-      <c r="J368" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13248,12 +13422,12 @@
         <v>-31991333.53825888</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J369" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13287,12 +13461,12 @@
         <v>-32131891.49945888</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="n">
-        <v>6.063</v>
-      </c>
-      <c r="J370" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13326,12 +13500,12 @@
         <v>-31555210.48515888</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>6.051</v>
-      </c>
-      <c r="J371" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13365,12 +13539,12 @@
         <v>-31555210.48515888</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>6.107</v>
-      </c>
-      <c r="J372" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13404,12 +13578,12 @@
         <v>-31600174.93575888</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="n">
-        <v>6.107</v>
-      </c>
-      <c r="J373" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13443,12 +13617,14 @@
         <v>-31406706.91975888</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>6.05</v>
       </c>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13482,12 +13658,12 @@
         <v>-31652098.64975888</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
-      </c>
-      <c r="I375" t="n">
-        <v>6.123</v>
-      </c>
-      <c r="J375" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13521,12 +13697,14 @@
         <v>-31652098.64975888</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>6.09</v>
       </c>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13560,12 +13738,14 @@
         <v>-31383688.88075888</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>6.09</v>
       </c>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13599,12 +13779,14 @@
         <v>-31753303.12465888</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>6.093</v>
       </c>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13638,12 +13820,14 @@
         <v>-31742478.40025888</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>6.09</v>
       </c>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13677,12 +13861,14 @@
         <v>-31592363.10645888</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>6.099</v>
       </c>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13716,12 +13902,14 @@
         <v>-31590398.42215888</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>6.106</v>
       </c>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13755,12 +13943,14 @@
         <v>-31415574.76765888</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>6.126</v>
       </c>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13794,12 +13984,14 @@
         <v>-31707741.99295888</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>6.127</v>
       </c>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13833,12 +14025,12 @@
         <v>-31645489.77335888</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>6.114</v>
-      </c>
-      <c r="J384" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13872,12 +14064,14 @@
         <v>-32154045.35835888</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I385" t="n">
         <v>6.125</v>
       </c>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13911,12 +14105,12 @@
         <v>-32689187.72995888</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>6.124</v>
-      </c>
-      <c r="J386" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13950,12 +14144,12 @@
         <v>-31981060.80745888</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>6.082</v>
-      </c>
-      <c r="J387" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13989,12 +14183,12 @@
         <v>-32324861.71135888</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>6.107</v>
-      </c>
-      <c r="J388" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14028,12 +14222,12 @@
         <v>-32525744.19845888</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>6.093</v>
-      </c>
-      <c r="J389" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14067,12 +14261,12 @@
         <v>-32509348.24028429</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>6.088</v>
-      </c>
-      <c r="J390" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14109,7 +14303,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14146,7 +14342,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14180,10 +14378,14 @@
         <v>-32495998.41638793</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>6.093</v>
+      </c>
+      <c r="J393" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14217,10 +14419,14 @@
         <v>-32495998.41638793</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>6.102</v>
+      </c>
+      <c r="J394" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14254,10 +14460,14 @@
         <v>-32919793.11668793</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>6.102</v>
+      </c>
+      <c r="J395" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14291,12 +14501,14 @@
         <v>-32529410.87688986</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I396" t="n">
         <v>6.093</v>
       </c>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14330,12 +14542,14 @@
         <v>-32544549.85708986</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I397" t="n">
         <v>6.118</v>
       </c>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14369,12 +14583,14 @@
         <v>-32260641.16708986</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I398" t="n">
         <v>6.093</v>
       </c>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14408,12 +14624,14 @@
         <v>-32260026.17068986</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399" t="n">
         <v>6.104</v>
       </c>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14447,12 +14665,14 @@
         <v>-33149913.35808986</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>6.105</v>
       </c>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14486,12 +14706,12 @@
         <v>-32768264.28358986</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>6.067</v>
-      </c>
-      <c r="J401" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14525,12 +14745,12 @@
         <v>-33171701.21698986</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="n">
-        <v>6.114</v>
-      </c>
-      <c r="J402" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14564,12 +14784,14 @@
         <v>-33659938.82998987</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>6.085</v>
       </c>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14603,12 +14825,14 @@
         <v>-33268856.15408986</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>6.06</v>
       </c>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14642,12 +14866,14 @@
         <v>-34377334.87148987</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>6.072</v>
       </c>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14681,12 +14907,12 @@
         <v>-34377334.87148987</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
-      </c>
-      <c r="I406" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J406" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14720,12 +14946,14 @@
         <v>-34377334.87148987</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>6.05</v>
       </c>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14759,12 +14987,14 @@
         <v>-33987390.01118987</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>6.05</v>
       </c>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14798,12 +15028,14 @@
         <v>-33987390.01118987</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>6.061</v>
       </c>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14837,12 +15069,14 @@
         <v>-34172721.64618987</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>6.061</v>
       </c>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14876,12 +15110,14 @@
         <v>-34002595.48608987</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>6.04</v>
       </c>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14915,12 +15151,14 @@
         <v>-34196467.81388987</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>6.051</v>
       </c>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14954,12 +15192,14 @@
         <v>-33982265.36768987</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>6.05</v>
       </c>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14993,12 +15233,14 @@
         <v>-33975635.97658987</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>6.051</v>
       </c>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15032,12 +15274,14 @@
         <v>-33475297.90258987</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>6.08</v>
       </c>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15071,12 +15315,14 @@
         <v>-33688830.88558988</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>6.106</v>
       </c>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15110,12 +15356,14 @@
         <v>-33545828.78728988</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>6.087</v>
       </c>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15149,12 +15397,14 @@
         <v>-33414131.44768988</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>6.097</v>
       </c>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15188,12 +15438,14 @@
         <v>-33414131.44768988</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>6.106</v>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15227,12 +15479,14 @@
         <v>-33407088.72178987</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>6.106</v>
       </c>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15266,12 +15520,14 @@
         <v>-33392119.33358987</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>6.108</v>
       </c>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15305,12 +15561,14 @@
         <v>-33018427.25138988</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>6.109</v>
       </c>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15344,12 +15602,14 @@
         <v>-31852292.47366206</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>6.111</v>
       </c>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15383,12 +15643,14 @@
         <v>-31852292.47366206</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>6.121</v>
       </c>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15422,12 +15684,12 @@
         <v>-31643835.04734264</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
-      </c>
-      <c r="I425" t="n">
-        <v>6.121</v>
-      </c>
-      <c r="J425" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15461,12 +15723,12 @@
         <v>-31540092.04734264</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
-      </c>
-      <c r="I426" t="n">
-        <v>6.133</v>
-      </c>
-      <c r="J426" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15500,12 +15762,14 @@
         <v>-32530028.07554264</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>6.14</v>
       </c>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15539,12 +15803,12 @@
         <v>-32530028.07554264</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
-      </c>
-      <c r="I428" t="n">
-        <v>6.137</v>
-      </c>
-      <c r="J428" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15578,12 +15842,14 @@
         <v>-32281646.12524264</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>6.137</v>
       </c>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15617,12 +15883,14 @@
         <v>-32268618.94124264</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>6.14</v>
       </c>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15656,12 +15924,14 @@
         <v>-31855885.44014264</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>6.165</v>
       </c>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15695,12 +15965,12 @@
         <v>-31855285.44244264</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
-      </c>
-      <c r="I432" t="n">
-        <v>6.265</v>
-      </c>
-      <c r="J432" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15734,12 +16004,12 @@
         <v>-32259428.42294264</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
-      </c>
-      <c r="I433" t="n">
-        <v>6.288</v>
-      </c>
-      <c r="J433" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15773,12 +16043,12 @@
         <v>-32489559.14513602</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
-      </c>
-      <c r="I434" t="n">
-        <v>6.265</v>
-      </c>
-      <c r="J434" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15812,12 +16082,12 @@
         <v>-32792276.14323602</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
-      </c>
-      <c r="I435" t="n">
-        <v>6.264</v>
-      </c>
-      <c r="J435" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15851,12 +16121,12 @@
         <v>-33016471.35053602</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
-      </c>
-      <c r="I436" t="n">
-        <v>6.222</v>
-      </c>
-      <c r="J436" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15890,12 +16160,12 @@
         <v>-32649947.52083602</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
-      </c>
-      <c r="I437" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J437" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15929,12 +16199,12 @@
         <v>-32237313.51753602</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
-      </c>
-      <c r="I438" t="n">
-        <v>6.201</v>
-      </c>
-      <c r="J438" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15968,12 +16238,12 @@
         <v>-32218248.01983602</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="n">
-        <v>6.215</v>
-      </c>
-      <c r="J439" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16007,12 +16277,12 @@
         <v>-32232359.21743602</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
-      </c>
-      <c r="I440" t="n">
-        <v>6.238</v>
-      </c>
-      <c r="J440" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16046,12 +16316,12 @@
         <v>-32769306.84213602</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
-      </c>
-      <c r="I441" t="n">
-        <v>6.228</v>
-      </c>
-      <c r="J441" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16085,12 +16355,12 @@
         <v>-33167356.21203602</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
-      </c>
-      <c r="I442" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="J442" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16124,12 +16394,12 @@
         <v>-33167356.21203602</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
-      </c>
-      <c r="I443" t="n">
-        <v>6.097</v>
-      </c>
-      <c r="J443" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16163,12 +16433,12 @@
         <v>-32972170.71463602</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="n">
-        <v>6.097</v>
-      </c>
-      <c r="J444" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16202,12 +16472,12 @@
         <v>-32969825.86233602</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
-      </c>
-      <c r="I445" t="n">
-        <v>6.107</v>
-      </c>
-      <c r="J445" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16241,12 +16511,12 @@
         <v>-32639934.75633602</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>6.122</v>
-      </c>
-      <c r="J446" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16280,12 +16550,12 @@
         <v>-32981800.64973602</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="n">
-        <v>6.176</v>
-      </c>
-      <c r="J447" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16319,12 +16589,12 @@
         <v>-33164023.45463602</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="n">
-        <v>6.156</v>
-      </c>
-      <c r="J448" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16361,7 +16631,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16398,7 +16670,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16435,7 +16709,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16472,7 +16748,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16509,7 +16787,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16543,12 +16823,12 @@
         <v>-33136328.85243602</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="n">
-        <v>6.131</v>
-      </c>
-      <c r="J454" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16582,12 +16862,12 @@
         <v>-33136328.85243602</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J455" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16624,7 +16904,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16661,7 +16943,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16695,12 +16979,12 @@
         <v>-32381594.05203601</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="n">
-        <v>6.176</v>
-      </c>
-      <c r="J458" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16737,7 +17021,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16771,12 +17057,12 @@
         <v>-32286637.56333601</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="J460" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16810,12 +17096,12 @@
         <v>-32286637.56333601</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="n">
-        <v>6.193</v>
-      </c>
-      <c r="J461" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16852,7 +17138,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16889,7 +17177,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16926,7 +17216,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16960,12 +17252,12 @@
         <v>-32566720.03643601</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
-      </c>
-      <c r="I465" t="n">
-        <v>6.159</v>
-      </c>
-      <c r="J465" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17002,7 +17294,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17036,12 +17330,12 @@
         <v>-32260246.24513601</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
-      </c>
-      <c r="I467" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="J467" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17075,12 +17369,12 @@
         <v>-32260246.24513601</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="n">
-        <v>6.192</v>
-      </c>
-      <c r="J468" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17114,12 +17408,12 @@
         <v>-31973383.74793601</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="n">
-        <v>6.192</v>
-      </c>
-      <c r="J469" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17153,12 +17447,12 @@
         <v>-31876394.59523601</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="n">
-        <v>6.199</v>
-      </c>
-      <c r="J470" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17192,12 +17486,12 @@
         <v>-31441894.07918882</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>6.203</v>
-      </c>
-      <c r="J471" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17231,12 +17525,12 @@
         <v>-31441894.07918882</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>6.244</v>
-      </c>
-      <c r="J472" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17273,7 +17567,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17310,7 +17606,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17347,7 +17645,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17384,7 +17684,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17421,7 +17723,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17458,7 +17762,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17495,7 +17801,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17532,7 +17840,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17569,7 +17879,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17606,7 +17918,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17643,7 +17957,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17680,7 +17996,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17717,7 +18035,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17754,7 +18074,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17791,7 +18113,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17828,7 +18152,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17865,7 +18191,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17902,7 +18230,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17939,7 +18269,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17976,7 +18308,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18013,7 +18347,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18050,7 +18386,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18087,7 +18425,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18124,7 +18464,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18161,7 +18503,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18198,7 +18542,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18235,7 +18581,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18272,7 +18620,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18309,7 +18659,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18346,7 +18698,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18383,7 +18737,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18420,7 +18776,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18457,7 +18815,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18494,7 +18854,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18531,7 +18893,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18568,7 +18932,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18605,7 +18971,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18642,7 +19010,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18679,7 +19049,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18716,7 +19088,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18753,7 +19127,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18790,7 +19166,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18827,7 +19205,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18864,7 +19244,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18901,7 +19283,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18938,7 +19322,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18975,7 +19361,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19012,7 +19400,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19049,7 +19439,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19086,7 +19478,9 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19123,7 +19517,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19160,7 +19556,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19197,7 +19595,9 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19234,7 +19634,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19271,7 +19673,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19308,7 +19712,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19345,7 +19751,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19382,7 +19790,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19419,7 +19829,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19456,7 +19868,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19493,7 +19907,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19530,7 +19946,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19567,7 +19985,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19604,7 +20024,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19641,7 +20063,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19678,7 +20102,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19715,7 +20141,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19752,7 +20180,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19789,7 +20219,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19826,7 +20258,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19863,7 +20297,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19900,7 +20336,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19937,7 +20375,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19974,7 +20414,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20011,7 +20453,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20048,7 +20492,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20085,7 +20531,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20122,7 +20570,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20159,7 +20609,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20196,7 +20648,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20233,7 +20687,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20270,7 +20726,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20307,7 +20765,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20344,7 +20804,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20381,7 +20843,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20418,7 +20882,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20455,7 +20921,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20492,7 +20960,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20529,7 +20999,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20566,7 +21038,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20603,7 +21077,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20640,7 +21116,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20677,7 +21155,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20714,7 +21194,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20751,7 +21233,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20788,7 +21272,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20825,7 +21311,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20862,7 +21350,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20899,7 +21389,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20936,7 +21428,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20973,7 +21467,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21010,7 +21506,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21047,7 +21545,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21084,7 +21584,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21121,7 +21623,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21158,7 +21662,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21195,7 +21701,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21232,7 +21740,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21269,7 +21779,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21306,7 +21818,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21343,7 +21857,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21380,7 +21896,9 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21417,7 +21935,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21454,7 +21974,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21491,7 +22013,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21528,7 +22052,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21565,7 +22091,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21602,7 +22130,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21639,7 +22169,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21676,7 +22208,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21713,7 +22247,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21750,7 +22286,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21787,7 +22325,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21824,7 +22364,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21861,7 +22403,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21898,7 +22442,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21935,7 +22481,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21972,7 +22520,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22009,7 +22559,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22046,7 +22598,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22083,7 +22637,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22120,7 +22676,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22157,7 +22715,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22194,7 +22754,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22231,7 +22793,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22268,7 +22832,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22305,7 +22871,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22342,7 +22910,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22379,7 +22949,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22416,7 +22988,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22453,7 +23027,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22490,7 +23066,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22527,7 +23105,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22564,7 +23144,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22601,7 +23183,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22638,7 +23222,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22675,7 +23261,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22712,7 +23300,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22749,7 +23339,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22786,7 +23378,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22823,7 +23417,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22860,7 +23456,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22897,7 +23495,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22934,7 +23534,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22971,7 +23573,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23008,7 +23612,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23045,7 +23651,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23082,7 +23690,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23119,7 +23729,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23156,7 +23768,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23193,7 +23807,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23230,7 +23846,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23267,7 +23885,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23304,7 +23924,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23341,7 +23963,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23378,7 +24002,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23415,7 +24041,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23452,7 +24080,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23489,7 +24119,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23526,7 +24158,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23563,7 +24197,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23600,7 +24236,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23637,7 +24275,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23674,7 +24314,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23711,7 +24353,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23748,7 +24392,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23785,7 +24431,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23822,7 +24470,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23859,7 +24509,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23896,7 +24548,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23933,7 +24587,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23970,7 +24626,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24007,7 +24665,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24044,7 +24704,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24081,7 +24743,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24118,7 +24782,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24155,7 +24821,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24192,7 +24860,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24229,7 +24899,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24266,7 +24938,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24303,7 +24977,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24340,7 +25016,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24377,7 +25055,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24414,7 +25094,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24451,7 +25133,9 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24488,7 +25172,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24525,7 +25211,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24562,7 +25250,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24599,7 +25289,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24636,7 +25328,9 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24673,7 +25367,9 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24710,7 +25406,9 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24747,7 +25445,9 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24784,7 +25484,9 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24821,7 +25523,9 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24858,7 +25562,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24895,7 +25601,9 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24932,7 +25640,9 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24969,7 +25679,9 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25006,7 +25718,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25043,7 +25757,9 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25080,7 +25796,9 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25117,7 +25835,9 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25154,7 +25874,9 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25191,7 +25913,9 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25228,7 +25952,9 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25265,7 +25991,9 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25302,7 +26030,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25339,7 +26069,9 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25376,7 +26108,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25413,7 +26147,9 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25450,7 +26186,9 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25487,7 +26225,9 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25524,7 +26264,9 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25561,7 +26303,9 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25598,7 +26342,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25635,7 +26381,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25672,7 +26420,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25709,7 +26459,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25746,7 +26498,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25783,7 +26537,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25820,7 +26576,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25857,7 +26615,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25894,7 +26654,9 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25931,7 +26693,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25968,7 +26732,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26005,7 +26771,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26042,7 +26810,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26079,7 +26849,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26116,7 +26888,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26153,7 +26927,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26190,7 +26966,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26227,7 +27005,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26264,7 +27044,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26301,7 +27083,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26338,7 +27122,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26375,7 +27161,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26412,7 +27200,9 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26449,7 +27239,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26486,7 +27278,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26523,7 +27317,9 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26560,7 +27356,9 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26597,7 +27395,9 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26634,7 +27434,9 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26671,7 +27473,9 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26708,7 +27512,9 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26745,7 +27551,9 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26782,7 +27590,9 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26819,7 +27629,9 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26856,7 +27668,9 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26893,7 +27707,9 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26930,7 +27746,9 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26967,7 +27785,9 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27004,7 +27824,9 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27041,7 +27863,9 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27078,7 +27902,9 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27115,7 +27941,9 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27152,7 +27980,9 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27189,7 +28019,9 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27226,7 +28058,9 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27263,7 +28097,9 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27300,7 +28136,9 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27337,7 +28175,9 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27374,7 +28214,9 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27411,7 +28253,9 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27448,7 +28292,9 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27485,7 +28331,9 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27522,7 +28370,9 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27559,7 +28409,9 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27596,7 +28448,9 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27633,7 +28487,9 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27670,7 +28526,9 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27707,7 +28565,9 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27744,7 +28604,9 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27781,7 +28643,9 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27818,7 +28682,9 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27855,7 +28721,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27892,7 +28760,9 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27929,7 +28799,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27966,7 +28838,9 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28003,7 +28877,9 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28040,7 +28916,9 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28077,7 +28955,9 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28114,7 +28994,9 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28151,7 +29033,9 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28188,7 +29072,9 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28225,7 +29111,9 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28262,7 +29150,9 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28299,7 +29189,9 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28336,7 +29228,9 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28373,7 +29267,9 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28410,7 +29306,9 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28447,7 +29345,9 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28484,7 +29384,9 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28521,7 +29423,9 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28558,7 +29462,9 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28595,7 +29501,9 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28632,7 +29540,9 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28669,7 +29579,9 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28706,7 +29618,9 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28743,7 +29657,9 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28780,7 +29696,9 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28817,7 +29735,9 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28854,7 +29774,9 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28891,7 +29813,9 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28928,7 +29852,9 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28965,7 +29891,9 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29002,7 +29930,9 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29039,7 +29969,9 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29076,7 +30008,9 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29113,7 +30047,9 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29150,7 +30086,9 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29187,7 +30125,9 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29224,7 +30164,9 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29261,7 +30203,9 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29298,7 +30242,9 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29335,7 +30281,9 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29372,7 +30320,9 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29409,7 +30359,9 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29446,7 +30398,9 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29483,7 +30437,9 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29520,7 +30476,9 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29557,7 +30515,9 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29594,7 +30554,9 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29631,7 +30593,9 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29668,7 +30632,9 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29705,7 +30671,9 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29742,7 +30710,9 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29779,7 +30749,9 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29816,7 +30788,9 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29853,7 +30827,9 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29890,7 +30866,9 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29927,7 +30905,9 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29964,7 +30944,9 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30001,7 +30983,9 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30038,7 +31022,9 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30075,7 +31061,9 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30112,7 +31100,9 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30149,7 +31139,9 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30186,7 +31178,9 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30223,7 +31217,9 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30260,7 +31256,9 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30297,7 +31295,9 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30334,7 +31334,9 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30371,7 +31373,9 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30408,7 +31412,9 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30445,7 +31451,9 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30482,7 +31490,9 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30519,7 +31529,9 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30556,7 +31568,9 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30593,7 +31607,9 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30630,7 +31646,9 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30667,7 +31685,9 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30704,7 +31724,9 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30741,7 +31763,9 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30778,7 +31802,9 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30815,7 +31841,9 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30849,16 +31877,20 @@
         <v>-23725684.11313722</v>
       </c>
       <c r="H840" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L840" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L840" t="n">
+        <v>1</v>
+      </c>
       <c r="M840" t="inlineStr"/>
     </row>
     <row r="841">
@@ -30884,11 +31916,17 @@
         <v>-23566453.39253722</v>
       </c>
       <c r="H841" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -30920,8 +31958,14 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -30953,8 +31997,14 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -30986,8 +32036,14 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -31019,8 +32075,14 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -31049,11 +32111,17 @@
         <v>-21905930.41075809</v>
       </c>
       <c r="H846" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -31082,11 +32150,17 @@
         <v>-20990533.04105809</v>
       </c>
       <c r="H847" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -31115,11 +32189,17 @@
         <v>-20637472.94225809</v>
       </c>
       <c r="H848" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -31148,11 +32228,17 @@
         <v>-19573761.60616257</v>
       </c>
       <c r="H849" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -31181,11 +32267,17 @@
         <v>-19379076.59875809</v>
       </c>
       <c r="H850" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -31214,11 +32306,17 @@
         <v>-16648775.49187502</v>
       </c>
       <c r="H851" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -31247,11 +32345,17 @@
         <v>-14953264.82130591</v>
       </c>
       <c r="H852" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -31280,11 +32384,17 @@
         <v>-15696498.12639129</v>
       </c>
       <c r="H853" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -31313,11 +32423,17 @@
         <v>-14804655.86332886</v>
       </c>
       <c r="H854" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -31346,11 +32462,17 @@
         <v>-14364635.22882886</v>
       </c>
       <c r="H855" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -31379,11 +32501,17 @@
         <v>-14946675.83512886</v>
       </c>
       <c r="H856" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -31412,11 +32540,17 @@
         <v>-19444459.78082886</v>
       </c>
       <c r="H857" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -31448,8 +32582,14 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -31481,8 +32621,14 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -31514,8 +32660,14 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -31547,8 +32699,14 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -31580,8 +32738,14 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -31613,8 +32777,14 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -31646,8 +32816,14 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -31679,8 +32855,14 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -31712,8 +32894,14 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -31745,8 +32933,14 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -31778,8 +32972,14 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -31811,8 +33011,14 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -31844,8 +33050,14 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -31877,8 +33089,14 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -31910,8 +33128,14 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -31943,8 +33167,14 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -31976,8 +33206,14 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -32009,8 +33245,14 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -32042,8 +33284,14 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -32075,8 +33323,14 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -32108,8 +33362,14 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -32138,11 +33398,17 @@
         <v>-23219518.72608298</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -32171,11 +33437,17 @@
         <v>-24937179.78205798</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -32204,11 +33476,17 @@
         <v>-25347568.11285798</v>
       </c>
       <c r="H881" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -32240,8 +33518,14 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -32273,8 +33557,14 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -32306,8 +33596,14 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -32339,8 +33635,14 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -32372,8 +33674,14 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -32405,8 +33713,14 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -32438,8 +33752,14 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -32471,8 +33791,14 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -32504,8 +33830,14 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -32537,8 +33869,14 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -32570,8 +33908,14 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -32603,8 +33947,14 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -32636,8 +33986,14 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -32669,8 +34025,14 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -32702,8 +34064,14 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -32735,8 +34103,14 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -32768,8 +34142,14 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -32801,8 +34181,14 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -32831,15 +34217,23 @@
         <v>-26314718.31492928</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L900" t="n">
-        <v>1</v>
-      </c>
-      <c r="M900" t="inlineStr"/>
+        <v>1.186639344262295</v>
+      </c>
+      <c r="M900" t="n">
+        <v>1.193746881756195</v>
+      </c>
     </row>
     <row r="901">
       <c r="A901" s="1" t="n">
@@ -32963,7 +34357,7 @@
         <v>-27845796.87972928</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -35372,7 +36766,7 @@
         <v>-29105495.80532139</v>
       </c>
       <c r="H977" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -35405,7 +36799,7 @@
         <v>-28612658.95622139</v>
       </c>
       <c r="H978" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -35438,7 +36832,7 @@
         <v>-24074850.87652139</v>
       </c>
       <c r="H979" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -35471,7 +36865,7 @@
         <v>-24988580.57145831</v>
       </c>
       <c r="H980" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -35537,7 +36931,7 @@
         <v>-23825727.98945831</v>
       </c>
       <c r="H982" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -35570,7 +36964,7 @@
         <v>-25034553.39495831</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -35603,7 +36997,7 @@
         <v>-23967575.93745831</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -35636,7 +37030,7 @@
         <v>-24486818.52149514</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -35669,7 +37063,7 @@
         <v>-23871489.31639514</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -35702,7 +37096,7 @@
         <v>-23871489.31639514</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -35735,7 +37129,7 @@
         <v>-24521527.99669514</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -35768,7 +37162,7 @@
         <v>-23774678.70509514</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -35801,7 +37195,7 @@
         <v>-24418769.33469514</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -35834,7 +37228,7 @@
         <v>-24418769.33469514</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -35867,7 +37261,7 @@
         <v>-24695628.97509514</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -35900,7 +37294,7 @@
         <v>-24740058.20179514</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -35933,7 +37327,7 @@
         <v>-24740058.20179514</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -35966,7 +37360,7 @@
         <v>-24752358.20179514</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -35999,7 +37393,7 @@
         <v>-24752358.20179514</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -36032,7 +37426,7 @@
         <v>-24895256.25799514</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -36065,7 +37459,7 @@
         <v>-25120330.17009514</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -36098,7 +37492,7 @@
         <v>-25722266.85319514</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -36131,7 +37525,7 @@
         <v>-25343757.06349514</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -36164,7 +37558,7 @@
         <v>-25387855.83059514</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -36197,7 +37591,7 @@
         <v>-25130046.75279514</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -36230,7 +37624,7 @@
         <v>-24142817.10899514</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -36263,7 +37657,7 @@
         <v>-24049344.96179514</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -36296,7 +37690,7 @@
         <v>-24094367.91389514</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -36329,7 +37723,7 @@
         <v>-24325233.43799514</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -36362,7 +37756,7 @@
         <v>-23848530.14609513</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -36395,7 +37789,7 @@
         <v>-25603236.36529513</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -36428,7 +37822,7 @@
         <v>-25603236.36529513</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -36461,7 +37855,7 @@
         <v>-25210394.06129513</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -36494,7 +37888,7 @@
         <v>-25755417.81709513</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -36527,7 +37921,7 @@
         <v>-26039555.65329513</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -36560,7 +37954,7 @@
         <v>-26177492.34489513</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -36593,7 +37987,7 @@
         <v>-25827989.76229513</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -36626,7 +38020,7 @@
         <v>-25744405.67039513</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -36659,7 +38053,7 @@
         <v>-26135914.70569513</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -36692,7 +38086,7 @@
         <v>-26155805.28619513</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -36725,7 +38119,7 @@
         <v>-25952437.31569513</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -36758,7 +38152,7 @@
         <v>-26117295.64420589</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -36791,7 +38185,7 @@
         <v>-25802914.77920589</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -36824,7 +38218,7 @@
         <v>-25802914.77920589</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -36857,7 +38251,7 @@
         <v>-25367299.76880589</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -36890,7 +38284,7 @@
         <v>-25931818.41550589</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -36923,7 +38317,7 @@
         <v>-25931818.41550589</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -36956,7 +38350,7 @@
         <v>-25931818.41550589</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -36989,7 +38383,7 @@
         <v>-26653465.63200589</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -37022,7 +38416,7 @@
         <v>-26679471.08480588</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -37055,7 +38449,7 @@
         <v>-27148728.56190588</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -37088,7 +38482,7 @@
         <v>-27611971.97050588</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -37121,7 +38515,7 @@
         <v>-27251428.64250588</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -37154,7 +38548,7 @@
         <v>-27407387.04020588</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -37187,7 +38581,7 @@
         <v>-28038672.86353398</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -37220,7 +38614,7 @@
         <v>-30273986.75363398</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -37253,7 +38647,7 @@
         <v>-30962789.86933398</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -37286,7 +38680,7 @@
         <v>-31505612.39733398</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -37319,7 +38713,7 @@
         <v>-32599362.56493398</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -37352,7 +38746,7 @@
         <v>-33026993.95103398</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -37385,7 +38779,7 @@
         <v>-33026993.95103398</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -37418,7 +38812,7 @@
         <v>-32384312.32783398</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -37484,7 +38878,7 @@
         <v>-32263212.41203398</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -42775,6 +44169,6 @@
       <c r="M1201" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest XSR.xlsx
+++ b/BackTest/2020-01-11 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3302506.324999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3302506.324999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3133076.580299999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3861098.841899999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-5420309.967499999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-6661288.254799999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-5711047.939699999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-5711047.939699999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-5062580.415099999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-5104986.832899999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-5281139.782199999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-5291587.490999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-6530154.675299999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-7069646.775099999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-7178085.720699999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-7692583.881399999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-7960482.1981</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-7960482.1981</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-8854856.0437</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-8854856.0437</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-10283718.1536</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-11149612.4914</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-11660390.6104</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-11589701.0474</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-11855920.5622</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-11855920.5622</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-12494844.2165</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-10705519.4765</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-10309249.5467</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-11204262.45126407</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-10848963.37936407</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-10701690.75696407</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-11294070.27046407</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -8866,14 +8866,10 @@
         <v>-26335207.67025888</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J257" t="n">
-        <v>6.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
@@ -8903,19 +8899,11 @@
         <v>-26510161.06355888</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>6.119</v>
-      </c>
-      <c r="J258" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8944,19 +8932,11 @@
         <v>-26510161.06355888</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J259" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8985,19 +8965,11 @@
         <v>-26866971.60915888</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J260" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9026,19 +8998,11 @@
         <v>-26866881.60915888</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>6.078</v>
-      </c>
-      <c r="J261" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9067,19 +9031,11 @@
         <v>-27242446.53065888</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>6.094</v>
-      </c>
-      <c r="J262" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9111,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9147,19 +9097,11 @@
         <v>-27734854.19295888</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>6.072</v>
-      </c>
-      <c r="J264" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9188,19 +9130,11 @@
         <v>-27734854.19295888</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>6.016</v>
-      </c>
-      <c r="J265" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9229,19 +9163,11 @@
         <v>-27472031.30445888</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>6.016</v>
-      </c>
-      <c r="J266" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9270,19 +9196,11 @@
         <v>-27471478.29215888</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="J267" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9311,19 +9229,11 @@
         <v>-27721677.31175888</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>6.073</v>
-      </c>
-      <c r="J268" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9352,19 +9262,11 @@
         <v>-27261767.10145888</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>6.025</v>
-      </c>
-      <c r="J269" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9393,19 +9295,11 @@
         <v>-27196529.03875888</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>6.042</v>
-      </c>
-      <c r="J270" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9434,19 +9328,11 @@
         <v>-27196529.03875888</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J271" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9475,19 +9361,11 @@
         <v>-27719764.90515888</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J272" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9516,19 +9394,11 @@
         <v>-27579779.65605888</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>6.051</v>
-      </c>
-      <c r="J273" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9557,19 +9427,11 @@
         <v>-27502210.75985888</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>6.053</v>
-      </c>
-      <c r="J274" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9598,19 +9460,11 @@
         <v>-27105641.75045888</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>6.092</v>
-      </c>
-      <c r="J275" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9639,19 +9493,11 @@
         <v>-27697790.99025888</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>6.094</v>
-      </c>
-      <c r="J276" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9680,19 +9526,11 @@
         <v>-27495319.11735888</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>6.012</v>
-      </c>
-      <c r="J277" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9721,19 +9559,11 @@
         <v>-27198101.64315888</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>6.057</v>
-      </c>
-      <c r="J278" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9762,19 +9592,11 @@
         <v>-27231601.64315888</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>6.069</v>
-      </c>
-      <c r="J279" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9803,19 +9625,11 @@
         <v>-27775015.81705888</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>6.016</v>
-      </c>
-      <c r="J280" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9844,19 +9658,11 @@
         <v>-28185065.64845888</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J281" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9885,19 +9691,11 @@
         <v>-28185065.64845888</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>6.009</v>
-      </c>
-      <c r="J282" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9926,19 +9724,11 @@
         <v>-28163995.22665888</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>6.009</v>
-      </c>
-      <c r="J283" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9967,19 +9757,11 @@
         <v>-27647364.53845888</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>6.038</v>
-      </c>
-      <c r="J284" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10008,19 +9790,11 @@
         <v>-27647364.53845888</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>6.041</v>
-      </c>
-      <c r="J285" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10049,19 +9823,11 @@
         <v>-28181080.89045888</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>6.041</v>
-      </c>
-      <c r="J286" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10090,19 +9856,11 @@
         <v>-28555769.01495888</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="J287" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10131,19 +9889,11 @@
         <v>-28555769.01495888</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="J288" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10172,19 +9922,11 @@
         <v>-27936352.80375888</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="J289" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10213,19 +9955,11 @@
         <v>-27898458.87345888</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>6.029</v>
-      </c>
-      <c r="J290" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10254,19 +9988,11 @@
         <v>-28124671.05505888</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J291" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10295,19 +10021,11 @@
         <v>-28106529.03275888</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>6.072</v>
-      </c>
-      <c r="J292" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10336,19 +10054,11 @@
         <v>-28117302.50535888</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>6.078</v>
-      </c>
-      <c r="J293" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10377,19 +10087,11 @@
         <v>-28319919.63385888</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>6.072</v>
-      </c>
-      <c r="J294" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10418,19 +10120,11 @@
         <v>-28818308.69125888</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>6.059</v>
-      </c>
-      <c r="J295" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10459,19 +10153,11 @@
         <v>-28801431.37365888</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="J296" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10500,19 +10186,11 @@
         <v>-29009766.50665888</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="J297" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10541,19 +10219,11 @@
         <v>-28739353.04645888</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="J298" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10582,19 +10252,11 @@
         <v>-28728402.37045888</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>6.045</v>
-      </c>
-      <c r="J299" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10623,19 +10285,11 @@
         <v>-28658766.40005888</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>6.065</v>
-      </c>
-      <c r="J300" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10664,19 +10318,11 @@
         <v>-28658766.40005888</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>6.067</v>
-      </c>
-      <c r="J301" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10705,19 +10351,11 @@
         <v>-28656916.12305888</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>6.067</v>
-      </c>
-      <c r="J302" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10746,19 +10384,11 @@
         <v>-28831991.41365888</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>6.097</v>
-      </c>
-      <c r="J303" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10787,19 +10417,11 @@
         <v>-28541394.72685888</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>6.061</v>
-      </c>
-      <c r="J304" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10828,19 +10450,11 @@
         <v>-28538062.29095889</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>6.098</v>
-      </c>
-      <c r="J305" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10869,19 +10483,11 @@
         <v>-28538062.29095889</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>6.099</v>
-      </c>
-      <c r="J306" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10910,19 +10516,11 @@
         <v>-28550334.02865889</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>6.099</v>
-      </c>
-      <c r="J307" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10951,19 +10549,11 @@
         <v>-28591892.38615889</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>6.097</v>
-      </c>
-      <c r="J308" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10992,19 +10582,11 @@
         <v>-29071516.97335889</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>6.072</v>
-      </c>
-      <c r="J309" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11033,19 +10615,11 @@
         <v>-29084117.76065889</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>6.063</v>
-      </c>
-      <c r="J310" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11074,19 +10648,11 @@
         <v>-29081617.76065889</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>6.061</v>
-      </c>
-      <c r="J311" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11115,19 +10681,11 @@
         <v>-29259096.37445889</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>6.072</v>
-      </c>
-      <c r="J312" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11156,19 +10714,11 @@
         <v>-28945715.24935889</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>6.064</v>
-      </c>
-      <c r="J313" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11197,19 +10747,11 @@
         <v>-28943626.24935889</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>6.087</v>
-      </c>
-      <c r="J314" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11238,19 +10780,11 @@
         <v>-28943626.24935889</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="J315" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11279,19 +10813,11 @@
         <v>-29153974.35635889</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="J316" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11320,19 +10846,11 @@
         <v>-29369622.72245889</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>6.087</v>
-      </c>
-      <c r="J317" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11361,19 +10879,11 @@
         <v>-29378105.82465889</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>6.081</v>
-      </c>
-      <c r="J318" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11402,19 +10912,11 @@
         <v>-29144349.60475889</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>6.069</v>
-      </c>
-      <c r="J319" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11443,19 +10945,11 @@
         <v>-29144657.41935889</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>6.095</v>
-      </c>
-      <c r="J320" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11484,19 +10978,11 @@
         <v>-29155667.18595889</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J321" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11525,19 +11011,11 @@
         <v>-28900703.09785889</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="J322" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11566,19 +11044,11 @@
         <v>-29107839.38945889</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>6.094</v>
-      </c>
-      <c r="J323" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11607,19 +11077,11 @@
         <v>-29130568.69795889</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>6.091</v>
-      </c>
-      <c r="J324" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11648,19 +11110,11 @@
         <v>-29352942.42395889</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>6.089</v>
-      </c>
-      <c r="J325" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11689,19 +11143,11 @@
         <v>-29342488.42395889</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>6.084</v>
-      </c>
-      <c r="J326" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11730,19 +11176,11 @@
         <v>-29620801.34645889</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>6.089</v>
-      </c>
-      <c r="J327" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11771,19 +11209,11 @@
         <v>-28951367.97215889</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>6.078</v>
-      </c>
-      <c r="J328" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11812,19 +11242,11 @@
         <v>-28813719.85445889</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>6.088</v>
-      </c>
-      <c r="J329" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11853,19 +11275,11 @@
         <v>-28091278.20085889</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>6.107</v>
-      </c>
-      <c r="J330" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11894,19 +11308,11 @@
         <v>-27953918.15505889</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="J331" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11935,19 +11341,11 @@
         <v>-28342516.22405889</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>6.113</v>
-      </c>
-      <c r="J332" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11976,19 +11374,11 @@
         <v>-27966053.87175889</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J333" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12017,19 +11407,11 @@
         <v>-27966053.87175889</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>6.113</v>
-      </c>
-      <c r="J334" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12058,19 +11440,11 @@
         <v>-27966053.87175889</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>6.113</v>
-      </c>
-      <c r="J335" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12099,19 +11473,11 @@
         <v>-27716593.31025888</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>6.113</v>
-      </c>
-      <c r="J336" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12140,19 +11506,11 @@
         <v>-27369158.30305889</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>6.114</v>
-      </c>
-      <c r="J337" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12181,19 +11539,11 @@
         <v>-27195930.36435888</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>6.115</v>
-      </c>
-      <c r="J338" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12222,19 +11572,11 @@
         <v>-27507018.86475888</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>6.199</v>
-      </c>
-      <c r="J339" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12263,19 +11605,11 @@
         <v>-27509001.29325888</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>6.161</v>
-      </c>
-      <c r="J340" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12304,19 +11638,11 @@
         <v>-27162008.95455888</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="J341" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12345,19 +11671,11 @@
         <v>-27161797.86355888</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>6.161</v>
-      </c>
-      <c r="J342" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12386,19 +11704,11 @@
         <v>-28153829.09755889</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>6.196</v>
-      </c>
-      <c r="J343" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12427,19 +11737,11 @@
         <v>-28152024.22525889</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>6.139</v>
-      </c>
-      <c r="J344" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12468,19 +11770,11 @@
         <v>-28161033.60935889</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>6.189</v>
-      </c>
-      <c r="J345" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12509,19 +11803,11 @@
         <v>-27745981.19005889</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="J346" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12550,19 +11836,11 @@
         <v>-27729777.59555889</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>6.148</v>
-      </c>
-      <c r="J347" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12591,19 +11869,11 @@
         <v>-27518984.53515888</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>6.155</v>
-      </c>
-      <c r="J348" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12635,14 +11905,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12674,14 +11938,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12713,14 +11971,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12749,19 +12001,11 @@
         <v>-27965360.79265888</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>6.121</v>
-      </c>
-      <c r="J352" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12793,14 +12037,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12829,19 +12067,11 @@
         <v>-28035660.06035889</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J354" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12870,19 +12100,11 @@
         <v>-27792572.35515888</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J355" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12911,19 +12133,11 @@
         <v>-28182856.08525888</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="J356" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12955,14 +12169,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12991,19 +12199,11 @@
         <v>-28591960.32545888</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>6.123</v>
-      </c>
-      <c r="J358" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13035,14 +12235,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13074,14 +12268,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13113,14 +12301,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13152,14 +12334,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13191,14 +12367,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13230,14 +12400,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13269,14 +12433,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13308,14 +12466,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13347,14 +12499,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13386,14 +12532,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13425,14 +12565,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13464,14 +12598,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13503,14 +12631,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13542,14 +12664,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13581,14 +12697,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13617,19 +12727,11 @@
         <v>-31406706.91975888</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J374" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13661,14 +12763,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13697,19 +12793,11 @@
         <v>-31652098.64975888</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J376" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13738,19 +12826,11 @@
         <v>-31383688.88075888</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J377" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13779,19 +12859,11 @@
         <v>-31753303.12465888</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>6.093</v>
-      </c>
-      <c r="J378" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13820,19 +12892,11 @@
         <v>-31742478.40025888</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J379" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13861,19 +12925,11 @@
         <v>-31592363.10645888</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>6.099</v>
-      </c>
-      <c r="J380" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13902,19 +12958,11 @@
         <v>-31590398.42215888</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>6.106</v>
-      </c>
-      <c r="J381" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13943,19 +12991,11 @@
         <v>-31415574.76765888</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>6.126</v>
-      </c>
-      <c r="J382" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13984,19 +13024,11 @@
         <v>-31707741.99295888</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>6.127</v>
-      </c>
-      <c r="J383" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14028,14 +13060,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14064,19 +13090,11 @@
         <v>-32154045.35835888</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>6.125</v>
-      </c>
-      <c r="J385" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14108,14 +13126,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14147,14 +13159,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14186,14 +13192,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14225,14 +13225,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14264,14 +13258,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14303,14 +13291,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14342,14 +13324,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14378,19 +13354,11 @@
         <v>-32495998.41638793</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>6.093</v>
-      </c>
-      <c r="J393" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14419,19 +13387,11 @@
         <v>-32495998.41638793</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>6.102</v>
-      </c>
-      <c r="J394" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14460,19 +13420,11 @@
         <v>-32919793.11668793</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>6.102</v>
-      </c>
-      <c r="J395" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14507,13 +13459,9 @@
         <v>6.093</v>
       </c>
       <c r="J396" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>6.093</v>
+      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14542,17 +13490,15 @@
         <v>-32544549.85708986</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>6.118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>6.1</v>
+        <v>6.093</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L397" t="n">
@@ -14589,11 +13535,11 @@
         <v>6.093</v>
       </c>
       <c r="J398" t="n">
-        <v>6.1</v>
+        <v>6.093</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L398" t="n">
@@ -14630,13 +13576,9 @@
         <v>6.104</v>
       </c>
       <c r="J399" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>6.104</v>
+      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14671,11 +13613,11 @@
         <v>6.105</v>
       </c>
       <c r="J400" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L400" t="n">
@@ -14706,11 +13648,13 @@
         <v>-32768264.28358986</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>6.067</v>
+      </c>
       <c r="J401" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14745,11 +13689,13 @@
         <v>-33171701.21698986</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>6.114</v>
+      </c>
       <c r="J402" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14790,7 +13736,7 @@
         <v>6.085</v>
       </c>
       <c r="J403" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14831,7 +13777,7 @@
         <v>6.06</v>
       </c>
       <c r="J404" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14872,7 +13818,7 @@
         <v>6.072</v>
       </c>
       <c r="J405" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14907,11 +13853,13 @@
         <v>-34377334.87148987</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>6.05</v>
+      </c>
       <c r="J406" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14952,7 +13900,7 @@
         <v>6.05</v>
       </c>
       <c r="J407" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14993,7 +13941,7 @@
         <v>6.05</v>
       </c>
       <c r="J408" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -15034,7 +13982,7 @@
         <v>6.061</v>
       </c>
       <c r="J409" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15075,7 +14023,7 @@
         <v>6.061</v>
       </c>
       <c r="J410" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15116,7 +14064,7 @@
         <v>6.04</v>
       </c>
       <c r="J411" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15157,7 +14105,7 @@
         <v>6.051</v>
       </c>
       <c r="J412" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15198,7 +14146,7 @@
         <v>6.05</v>
       </c>
       <c r="J413" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15239,7 +14187,7 @@
         <v>6.051</v>
       </c>
       <c r="J414" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15280,7 +14228,7 @@
         <v>6.08</v>
       </c>
       <c r="J415" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15321,7 +14269,7 @@
         <v>6.106</v>
       </c>
       <c r="J416" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15362,7 +14310,7 @@
         <v>6.087</v>
       </c>
       <c r="J417" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15403,7 +14351,7 @@
         <v>6.097</v>
       </c>
       <c r="J418" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15444,7 +14392,7 @@
         <v>6.106</v>
       </c>
       <c r="J419" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15485,7 +14433,7 @@
         <v>6.106</v>
       </c>
       <c r="J420" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15526,7 +14474,7 @@
         <v>6.108</v>
       </c>
       <c r="J421" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15567,7 +14515,7 @@
         <v>6.109</v>
       </c>
       <c r="J422" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15608,7 +14556,7 @@
         <v>6.111</v>
       </c>
       <c r="J423" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15649,7 +14597,7 @@
         <v>6.121</v>
       </c>
       <c r="J424" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15684,11 +14632,13 @@
         <v>-31643835.04734264</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>6.121</v>
+      </c>
       <c r="J425" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15723,11 +14673,13 @@
         <v>-31540092.04734264</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>6.133</v>
+      </c>
       <c r="J426" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15768,7 +14720,7 @@
         <v>6.14</v>
       </c>
       <c r="J427" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15803,11 +14755,13 @@
         <v>-32530028.07554264</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>6.137</v>
+      </c>
       <c r="J428" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15848,7 +14802,7 @@
         <v>6.137</v>
       </c>
       <c r="J429" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15889,7 +14843,7 @@
         <v>6.14</v>
       </c>
       <c r="J430" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15930,7 +14884,7 @@
         <v>6.165</v>
       </c>
       <c r="J431" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15969,7 +14923,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -16008,7 +14962,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -16047,7 +15001,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -16086,7 +15040,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -16125,7 +15079,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16164,7 +15118,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16203,7 +15157,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16242,7 +15196,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16281,7 +15235,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16320,7 +15274,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16359,7 +15313,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16394,11 +15348,13 @@
         <v>-33167356.21203602</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>6.097</v>
+      </c>
       <c r="J443" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16433,11 +15389,13 @@
         <v>-32972170.71463602</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>6.097</v>
+      </c>
       <c r="J444" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16472,11 +15430,13 @@
         <v>-32969825.86233602</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>6.107</v>
+      </c>
       <c r="J445" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16511,11 +15471,13 @@
         <v>-32639934.75633602</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>6.122</v>
+      </c>
       <c r="J446" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16554,7 +15516,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16593,7 +15555,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16632,7 +15594,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16667,11 +15629,13 @@
         <v>-33321590.86643602</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>6.131</v>
+      </c>
       <c r="J450" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16706,11 +15670,13 @@
         <v>-33605690.63033602</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>6.13</v>
+      </c>
       <c r="J451" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16749,7 +15715,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -16784,11 +15750,13 @@
         <v>-33146981.54763602</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>6.127</v>
+      </c>
       <c r="J453" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16823,11 +15791,13 @@
         <v>-33136328.85243602</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>6.131</v>
+      </c>
       <c r="J454" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16862,11 +15832,13 @@
         <v>-33136328.85243602</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>6.15</v>
+      </c>
       <c r="J455" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16905,7 +15877,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16940,11 +15912,13 @@
         <v>-32776755.89693601</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>6.151</v>
+      </c>
       <c r="J457" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16979,11 +15953,13 @@
         <v>-32381594.05203601</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>6.176</v>
+      </c>
       <c r="J458" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -17022,7 +15998,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -17061,7 +16037,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -17100,7 +16076,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -17139,7 +16115,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17178,7 +16154,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17217,7 +16193,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17256,7 +16232,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17295,7 +16271,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17334,7 +16310,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17373,7 +16349,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17412,7 +16388,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -17451,7 +16427,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -17490,7 +16466,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -17529,7 +16505,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -17568,7 +16544,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -17607,7 +16583,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -17646,7 +16622,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -17685,7 +16661,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -17724,7 +16700,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -17763,7 +16739,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -17802,7 +16778,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -17841,7 +16817,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -17880,7 +16856,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -17919,7 +16895,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -17958,7 +16934,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -17997,7 +16973,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -18036,7 +17012,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -18075,7 +17051,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -18114,7 +17090,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -18153,7 +17129,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -18192,7 +17168,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -18231,7 +17207,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -18270,7 +17246,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -18309,7 +17285,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -18348,7 +17324,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -18387,7 +17363,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -18426,7 +17402,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -18465,7 +17441,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -18504,7 +17480,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -18543,7 +17519,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -18582,7 +17558,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -18621,7 +17597,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -18660,7 +17636,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -18699,7 +17675,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -18738,7 +17714,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -18777,7 +17753,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -18816,7 +17792,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -18855,7 +17831,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -18894,7 +17870,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -18933,7 +17909,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -18972,7 +17948,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -19011,7 +17987,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -19050,7 +18026,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -19089,7 +18065,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -19128,7 +18104,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -19167,7 +18143,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -19206,7 +18182,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -19245,7 +18221,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -19284,7 +18260,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -19323,7 +18299,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -19362,7 +18338,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -19401,7 +18377,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -19440,7 +18416,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -19479,7 +18455,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -19518,7 +18494,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -19557,7 +18533,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -19596,7 +18572,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -19635,7 +18611,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -19674,7 +18650,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -19713,7 +18689,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -19752,7 +18728,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -19791,7 +18767,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -19830,7 +18806,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -19869,7 +18845,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -19908,7 +18884,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -19947,7 +18923,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -19986,7 +18962,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -20025,7 +19001,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -20064,7 +19040,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -20103,7 +19079,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -20142,7 +19118,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -20181,7 +19157,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -20220,7 +19196,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -20259,7 +19235,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -20298,7 +19274,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -20337,7 +19313,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -20376,7 +19352,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -20415,7 +19391,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -20454,7 +19430,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -20493,7 +19469,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -20532,7 +19508,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -20571,7 +19547,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -20610,7 +19586,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -20649,7 +19625,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -20688,7 +19664,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -20727,7 +19703,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -20766,7 +19742,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -20805,7 +19781,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -20844,7 +19820,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -20883,7 +19859,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -20922,7 +19898,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -20961,7 +19937,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -21000,7 +19976,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -21039,7 +20015,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -21078,7 +20054,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -21117,7 +20093,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -21156,7 +20132,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -21195,7 +20171,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -21234,7 +20210,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -21273,7 +20249,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -21312,7 +20288,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -21351,7 +20327,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -21390,7 +20366,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -21429,7 +20405,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -21468,7 +20444,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -21507,7 +20483,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -21546,7 +20522,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -21585,7 +20561,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -21624,7 +20600,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -21663,7 +20639,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -21702,7 +20678,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -21741,7 +20717,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -21780,7 +20756,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -21819,7 +20795,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -21858,7 +20834,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -21897,7 +20873,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -21936,7 +20912,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -21975,7 +20951,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -22014,7 +20990,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -22053,7 +21029,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -22092,7 +21068,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -22131,7 +21107,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -22170,7 +21146,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -22209,7 +21185,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -22248,7 +21224,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -22287,7 +21263,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -22326,7 +21302,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -22365,7 +21341,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -22404,7 +21380,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -22443,7 +21419,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -22482,7 +21458,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -22521,7 +21497,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -22560,7 +21536,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -22599,7 +21575,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -22638,7 +21614,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -22677,7 +21653,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -22716,7 +21692,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -22755,7 +21731,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -22794,7 +21770,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -22833,7 +21809,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -22872,7 +21848,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -22911,7 +21887,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -22950,7 +21926,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -22989,7 +21965,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -23028,7 +22004,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -23067,7 +22043,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -23106,7 +22082,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -23145,7 +22121,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -23184,7 +22160,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -23223,7 +22199,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -23262,7 +22238,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -23301,7 +22277,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -23340,7 +22316,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -23379,7 +22355,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -23418,7 +22394,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -23457,7 +22433,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -23496,7 +22472,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -23535,7 +22511,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -23574,7 +22550,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -23613,7 +22589,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -23652,7 +22628,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -23691,7 +22667,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -23730,7 +22706,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -23769,7 +22745,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -23808,7 +22784,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -23847,7 +22823,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -23886,7 +22862,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -23925,7 +22901,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -23964,7 +22940,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -24003,7 +22979,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -24042,7 +23018,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -24081,7 +23057,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -24120,7 +23096,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -24159,7 +23135,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -24198,7 +23174,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -24237,7 +23213,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -24276,7 +23252,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -24315,7 +23291,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -24354,7 +23330,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -24393,7 +23369,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -24432,7 +23408,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -24471,7 +23447,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -24510,7 +23486,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -24549,7 +23525,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -24588,7 +23564,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -24627,7 +23603,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -24666,7 +23642,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -24705,7 +23681,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -24744,7 +23720,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -24783,7 +23759,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -24822,7 +23798,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -24861,7 +23837,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -24900,7 +23876,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -24939,7 +23915,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -24978,7 +23954,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -25017,7 +23993,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -25056,7 +24032,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -25095,7 +24071,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -25134,7 +24110,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -25173,7 +24149,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -25212,7 +24188,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -25251,7 +24227,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -25290,7 +24266,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -25329,7 +24305,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -25368,7 +24344,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -25407,7 +24383,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -25446,7 +24422,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -25485,7 +24461,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -25524,7 +24500,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -25563,7 +24539,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -25602,7 +24578,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -25641,7 +24617,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -25680,7 +24656,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -25719,7 +24695,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -25758,7 +24734,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -25797,7 +24773,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -25836,7 +24812,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -25875,7 +24851,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -25914,7 +24890,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -25953,7 +24929,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -25992,7 +24968,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -26031,7 +25007,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -26070,7 +25046,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -26109,7 +25085,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -26148,7 +25124,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -26187,7 +25163,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -26226,7 +25202,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -26265,7 +25241,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -26304,7 +25280,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -26343,7 +25319,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -26382,7 +25358,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -26421,7 +25397,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -26460,7 +25436,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -26499,7 +25475,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -26538,7 +25514,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -26577,7 +25553,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -26616,7 +25592,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -26655,7 +25631,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -26694,7 +25670,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -26733,7 +25709,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -26772,7 +25748,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -26811,7 +25787,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -26850,7 +25826,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -26889,7 +25865,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -26928,7 +25904,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -26967,7 +25943,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -27006,7 +25982,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -27045,7 +26021,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -27084,7 +26060,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -27123,7 +26099,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -27162,7 +26138,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -27201,7 +26177,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -27240,7 +26216,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -27279,7 +26255,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -27318,7 +26294,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -27357,7 +26333,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -27396,7 +26372,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -27435,7 +26411,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -27474,7 +26450,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -27513,7 +26489,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -27552,7 +26528,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -27591,7 +26567,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -27630,7 +26606,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -27669,7 +26645,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -27708,7 +26684,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -27747,7 +26723,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -27786,7 +26762,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -27825,7 +26801,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -27864,7 +26840,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -27903,7 +26879,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -27942,7 +26918,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -27981,7 +26957,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -28020,7 +26996,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -28059,7 +27035,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -28098,7 +27074,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -28137,7 +27113,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -28176,7 +27152,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -28215,7 +27191,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -28254,7 +27230,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -28293,7 +27269,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -28332,7 +27308,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -28371,7 +27347,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -28410,7 +27386,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -28449,7 +27425,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -28488,7 +27464,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -28527,7 +27503,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -28566,7 +27542,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -28605,7 +27581,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -28644,7 +27620,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -28683,7 +27659,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -28722,7 +27698,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
@@ -28761,7 +27737,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K760" t="inlineStr">
         <is>
@@ -28800,7 +27776,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -28839,7 +27815,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -28878,7 +27854,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K763" t="inlineStr">
         <is>
@@ -28917,7 +27893,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K764" t="inlineStr">
         <is>
@@ -28956,7 +27932,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
@@ -28995,7 +27971,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -29034,7 +28010,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -29073,7 +28049,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -29112,7 +28088,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -29151,7 +28127,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -29190,7 +28166,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -29229,7 +28205,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -29268,7 +28244,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -29307,7 +28283,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -29346,7 +28322,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -29385,7 +28361,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -29424,7 +28400,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -29463,7 +28439,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -29502,7 +28478,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -29541,7 +28517,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -29580,7 +28556,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -29619,7 +28595,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -29658,7 +28634,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -29697,7 +28673,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -29736,7 +28712,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -29775,7 +28751,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -29814,7 +28790,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -29853,7 +28829,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -29892,7 +28868,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -29931,7 +28907,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -29970,7 +28946,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K791" t="inlineStr">
         <is>
@@ -30009,7 +28985,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K792" t="inlineStr">
         <is>
@@ -30048,7 +29024,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K793" t="inlineStr">
         <is>
@@ -30087,7 +29063,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K794" t="inlineStr">
         <is>
@@ -30126,7 +29102,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K795" t="inlineStr">
         <is>
@@ -30165,7 +29141,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
@@ -30204,7 +29180,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
@@ -30243,7 +29219,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K798" t="inlineStr">
         <is>
@@ -30282,7 +29258,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K799" t="inlineStr">
         <is>
@@ -30321,7 +29297,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K800" t="inlineStr">
         <is>
@@ -30360,7 +29336,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K801" t="inlineStr">
         <is>
@@ -30399,7 +29375,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K802" t="inlineStr">
         <is>
@@ -30438,7 +29414,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K803" t="inlineStr">
         <is>
@@ -30477,7 +29453,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
@@ -30516,7 +29492,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
@@ -30555,7 +29531,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K806" t="inlineStr">
         <is>
@@ -30594,7 +29570,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
@@ -30633,7 +29609,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
@@ -30672,7 +29648,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K809" t="inlineStr">
         <is>
@@ -30711,7 +29687,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K810" t="inlineStr">
         <is>
@@ -30750,7 +29726,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K811" t="inlineStr">
         <is>
@@ -30789,7 +29765,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K812" t="inlineStr">
         <is>
@@ -30828,7 +29804,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K813" t="inlineStr">
         <is>
@@ -30867,7 +29843,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K814" t="inlineStr">
         <is>
@@ -30906,7 +29882,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K815" t="inlineStr">
         <is>
@@ -30945,7 +29921,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K816" t="inlineStr">
         <is>
@@ -30984,7 +29960,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K817" t="inlineStr">
         <is>
@@ -31023,7 +29999,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K818" t="inlineStr">
         <is>
@@ -31062,7 +30038,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K819" t="inlineStr">
         <is>
@@ -31101,7 +30077,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K820" t="inlineStr">
         <is>
@@ -31140,7 +30116,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -31179,7 +30155,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -31218,7 +30194,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -31257,7 +30233,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K824" t="inlineStr">
         <is>
@@ -31296,7 +30272,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -31335,7 +30311,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -31374,7 +30350,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -31413,7 +30389,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -31452,7 +30428,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -31491,7 +30467,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -31530,7 +30506,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
@@ -31569,7 +30545,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -31608,7 +30584,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -31647,7 +30623,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -31686,7 +30662,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -31725,7 +30701,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -31764,7 +30740,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -31803,7 +30779,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -31842,7 +30818,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -31881,7 +30857,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -31920,7 +30896,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -31959,7 +30935,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -31998,7 +30974,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -32037,7 +31013,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K844" t="inlineStr">
         <is>
@@ -32076,7 +31052,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -32115,7 +31091,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -32154,7 +31130,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -32193,7 +31169,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -32232,7 +31208,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -32271,7 +31247,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -32310,7 +31286,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -32349,7 +31325,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -32388,7 +31364,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -32423,21 +31399,23 @@
         <v>-14804655.86332886</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="n">
-        <v>6.1</v>
+        <v>6.104</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L854" t="n">
-        <v>1</v>
-      </c>
-      <c r="M854" t="inlineStr"/>
+        <v>1.164397116644823</v>
+      </c>
+      <c r="M854" t="n">
+        <v>1.195138195138195</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" s="1" t="n">
@@ -32462,17 +31440,11 @@
         <v>-14364635.22882886</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -32501,17 +31473,11 @@
         <v>-14946675.83512886</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -32540,17 +31506,11 @@
         <v>-19444459.78082886</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -32579,17 +31539,11 @@
         <v>-19112188.11142886</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -32618,17 +31572,11 @@
         <v>-21193155.70752886</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -32657,17 +31605,11 @@
         <v>-20900982.68262886</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -32696,17 +31638,11 @@
         <v>-20650905.25572886</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -32738,14 +31674,8 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -32777,14 +31707,8 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -32813,17 +31737,11 @@
         <v>-22663554.89822886</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -32855,14 +31773,8 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -32894,14 +31806,8 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -32933,14 +31839,8 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -32972,14 +31872,8 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J868" t="inlineStr"/>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -33011,14 +31905,8 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -33050,14 +31938,8 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -33089,14 +31971,8 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J871" t="inlineStr"/>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -33128,14 +32004,8 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J872" t="inlineStr"/>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -33167,14 +32037,8 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J873" t="inlineStr"/>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -33203,17 +32067,11 @@
         <v>-21893173.25508298</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J874" t="inlineStr"/>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -33242,17 +32100,11 @@
         <v>-22246929.87178298</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -33281,17 +32133,11 @@
         <v>-21120290.33258298</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -33320,17 +32166,11 @@
         <v>-20582955.87118298</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J877" t="inlineStr"/>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -33359,17 +32199,11 @@
         <v>-15883439.07218298</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -33398,17 +32232,11 @@
         <v>-23219518.72608298</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -33437,17 +32265,11 @@
         <v>-24937179.78205798</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -33476,17 +32298,11 @@
         <v>-25347568.11285798</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -33515,17 +32331,11 @@
         <v>-25068857.74015798</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -33554,17 +32364,11 @@
         <v>-23775118.39398096</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -33593,17 +32397,11 @@
         <v>-23534990.36418096</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J884" t="inlineStr"/>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -33632,17 +32430,11 @@
         <v>-25236595.2810398</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -33671,17 +32463,11 @@
         <v>-25713043.7055398</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J886" t="inlineStr"/>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -33713,14 +32499,8 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -33752,14 +32532,8 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -33788,17 +32562,11 @@
         <v>-23308079.4777398</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -33830,14 +32598,8 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -33869,14 +32631,8 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J891" t="inlineStr"/>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -33908,14 +32664,8 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J892" t="inlineStr"/>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -33947,14 +32697,8 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -33986,14 +32730,8 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -34025,14 +32763,8 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -34064,14 +32796,8 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -34103,14 +32829,8 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J897" t="inlineStr"/>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -34142,14 +32862,8 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J898" t="inlineStr"/>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -34181,14 +32895,8 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J899" t="inlineStr"/>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -34217,23 +32925,15 @@
         <v>-26314718.31492928</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J900" t="inlineStr"/>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
-        <v>1.186639344262295</v>
-      </c>
-      <c r="M900" t="n">
-        <v>1.193746881756195</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M900" t="inlineStr"/>
     </row>
     <row r="901">
       <c r="A901" s="1" t="n">
@@ -34357,7 +33057,7 @@
         <v>-27845796.87972928</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -36931,7 +35631,7 @@
         <v>-23825727.98945831</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -36964,7 +35664,7 @@
         <v>-25034553.39495831</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -36997,7 +35697,7 @@
         <v>-23967575.93745831</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -37030,7 +35730,7 @@
         <v>-24486818.52149514</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -37063,7 +35763,7 @@
         <v>-23871489.31639514</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -37096,7 +35796,7 @@
         <v>-23871489.31639514</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -37129,7 +35829,7 @@
         <v>-24521527.99669514</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -37162,7 +35862,7 @@
         <v>-23774678.70509514</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -37195,7 +35895,7 @@
         <v>-24418769.33469514</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -37228,7 +35928,7 @@
         <v>-24418769.33469514</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -37261,7 +35961,7 @@
         <v>-24695628.97509514</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -37294,7 +35994,7 @@
         <v>-24740058.20179514</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -37327,7 +36027,7 @@
         <v>-24740058.20179514</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -37360,7 +36060,7 @@
         <v>-24752358.20179514</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -37393,7 +36093,7 @@
         <v>-24752358.20179514</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -37426,7 +36126,7 @@
         <v>-24895256.25799514</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -37459,7 +36159,7 @@
         <v>-25120330.17009514</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -37492,7 +36192,7 @@
         <v>-25722266.85319514</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -37525,7 +36225,7 @@
         <v>-25343757.06349514</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -37558,7 +36258,7 @@
         <v>-25387855.83059514</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -37591,7 +36291,7 @@
         <v>-25130046.75279514</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -37624,7 +36324,7 @@
         <v>-24142817.10899514</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -37657,7 +36357,7 @@
         <v>-24049344.96179514</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -37690,7 +36390,7 @@
         <v>-24094367.91389514</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -37723,7 +36423,7 @@
         <v>-24325233.43799514</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -37756,7 +36456,7 @@
         <v>-23848530.14609513</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -37789,7 +36489,7 @@
         <v>-25603236.36529513</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -37822,7 +36522,7 @@
         <v>-25603236.36529513</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -37855,7 +36555,7 @@
         <v>-25210394.06129513</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -37888,7 +36588,7 @@
         <v>-25755417.81709513</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -37921,7 +36621,7 @@
         <v>-26039555.65329513</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -37954,7 +36654,7 @@
         <v>-26177492.34489513</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -37987,7 +36687,7 @@
         <v>-25827989.76229513</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -38020,7 +36720,7 @@
         <v>-25744405.67039513</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -38053,7 +36753,7 @@
         <v>-26135914.70569513</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -38086,7 +36786,7 @@
         <v>-26155805.28619513</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -38119,7 +36819,7 @@
         <v>-25952437.31569513</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -38152,7 +36852,7 @@
         <v>-26117295.64420589</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -38185,7 +36885,7 @@
         <v>-25802914.77920589</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -38218,7 +36918,7 @@
         <v>-25802914.77920589</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -38251,7 +36951,7 @@
         <v>-25367299.76880589</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -38284,7 +36984,7 @@
         <v>-25931818.41550589</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -38317,7 +37017,7 @@
         <v>-25931818.41550589</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -38350,7 +37050,7 @@
         <v>-25931818.41550589</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -38383,7 +37083,7 @@
         <v>-26653465.63200589</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -38416,7 +37116,7 @@
         <v>-26679471.08480588</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -38449,7 +37149,7 @@
         <v>-27148728.56190588</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -38482,7 +37182,7 @@
         <v>-27611971.97050588</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -38515,7 +37215,7 @@
         <v>-27251428.64250588</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -38548,7 +37248,7 @@
         <v>-27407387.04020588</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -38581,7 +37281,7 @@
         <v>-28038672.86353398</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -38614,7 +37314,7 @@
         <v>-30273986.75363398</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -38647,7 +37347,7 @@
         <v>-30962789.86933398</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -38680,7 +37380,7 @@
         <v>-31505612.39733398</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -38713,7 +37413,7 @@
         <v>-32599362.56493398</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -38746,7 +37446,7 @@
         <v>-33026993.95103398</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -38779,7 +37479,7 @@
         <v>-33026993.95103398</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -38812,7 +37512,7 @@
         <v>-32384312.32783398</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -38878,7 +37578,7 @@
         <v>-32263212.41203398</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -44169,6 +42869,6 @@
       <c r="M1201" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest XSR.xlsx
+++ b/BackTest/2020-01-11 BackTest XSR.xlsx
@@ -451,7 +451,7 @@
         <v>-3302506.324999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3302506.324999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -9856,11 +9856,17 @@
         <v>-28555769.01495888</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>6.03</v>
+      </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +9895,17 @@
         <v>-28555769.01495888</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>6.011</v>
+      </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +9934,17 @@
         <v>-27936352.80375888</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>6.011</v>
+      </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +9977,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +10014,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +10051,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +10088,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +10125,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +10162,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10199,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10232,17 @@
         <v>-29009766.50665888</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>6.04</v>
+      </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10271,17 @@
         <v>-28739353.04645888</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>6.03</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10310,17 @@
         <v>-28728402.37045888</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>6.045</v>
+      </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +10349,17 @@
         <v>-28658766.40005888</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>6.065</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10388,17 @@
         <v>-28658766.40005888</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>6.067</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10427,17 @@
         <v>-28656916.12305888</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>6.067</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10466,17 @@
         <v>-28831991.41365888</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>6.097</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +10505,17 @@
         <v>-28541394.72685888</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>6.061</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10450,11 +10544,17 @@
         <v>-28538062.29095889</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>6.098</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +10587,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +10624,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +10661,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +10698,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +10735,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +10772,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +10809,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +10846,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +10883,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +10920,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +10957,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +10994,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +11031,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +11064,17 @@
         <v>-29144349.60475889</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>6.069</v>
+      </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +11107,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11144,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11181,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11218,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11255,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11292,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +11329,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +11366,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11403,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11440,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11477,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +11514,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +11551,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11588,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +11625,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +11662,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +11699,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +11736,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +11773,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +11810,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +11847,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +11884,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +11921,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +11958,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +11995,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +12032,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +12069,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +12106,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +12143,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +12180,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +12217,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11972,7 +12254,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +12291,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +12328,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +12365,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +12402,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +12439,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12476,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12513,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +12550,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +12587,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +12624,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +12661,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12368,7 +12698,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +12735,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +12772,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +12809,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +12846,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +12883,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +12920,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +12957,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +12994,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +13031,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12698,7 +13068,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12731,7 +13105,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12764,7 +13142,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12797,7 +13179,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +13216,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12863,7 +13253,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12896,7 +13290,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12929,7 +13327,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12962,7 +13364,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12995,7 +13401,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13028,7 +13438,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13061,7 +13475,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +13512,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13127,7 +13549,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +13586,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13193,7 +13623,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +13660,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13259,7 +13697,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +13734,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13325,7 +13771,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13358,7 +13808,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13391,7 +13845,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13424,7 +13882,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13453,15 +13915,15 @@
         <v>-32529410.87688986</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>6.093</v>
-      </c>
-      <c r="J396" t="n">
-        <v>6.093</v>
-      </c>
-      <c r="K396" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13493,12 +13955,10 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>6.093</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L397" t="n">
@@ -13534,12 +13994,10 @@
       <c r="I398" t="n">
         <v>6.093</v>
       </c>
-      <c r="J398" t="n">
-        <v>6.093</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L398" t="n">
@@ -13575,10 +14033,12 @@
       <c r="I399" t="n">
         <v>6.104</v>
       </c>
-      <c r="J399" t="n">
-        <v>6.104</v>
-      </c>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13607,17 +14067,13 @@
         <v>-33149913.35808986</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="J400" t="n">
-        <v>6.104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L400" t="n">
@@ -13648,14 +14104,10 @@
         <v>-32768264.28358986</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>6.067</v>
-      </c>
-      <c r="J401" t="n">
-        <v>6.104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13689,14 +14141,10 @@
         <v>-33171701.21698986</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>6.114</v>
-      </c>
-      <c r="J402" t="n">
-        <v>6.104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13730,14 +14178,10 @@
         <v>-33659938.82998987</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>6.085</v>
-      </c>
-      <c r="J403" t="n">
-        <v>6.104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13776,9 +14220,7 @@
       <c r="I404" t="n">
         <v>6.06</v>
       </c>
-      <c r="J404" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13817,9 +14259,7 @@
       <c r="I405" t="n">
         <v>6.072</v>
       </c>
-      <c r="J405" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13858,9 +14298,7 @@
       <c r="I406" t="n">
         <v>6.05</v>
       </c>
-      <c r="J406" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13899,9 +14337,7 @@
       <c r="I407" t="n">
         <v>6.05</v>
       </c>
-      <c r="J407" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13940,9 +14376,7 @@
       <c r="I408" t="n">
         <v>6.05</v>
       </c>
-      <c r="J408" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13981,9 +14415,7 @@
       <c r="I409" t="n">
         <v>6.061</v>
       </c>
-      <c r="J409" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14022,9 +14454,7 @@
       <c r="I410" t="n">
         <v>6.061</v>
       </c>
-      <c r="J410" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14063,9 +14493,7 @@
       <c r="I411" t="n">
         <v>6.04</v>
       </c>
-      <c r="J411" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14104,9 +14532,7 @@
       <c r="I412" t="n">
         <v>6.051</v>
       </c>
-      <c r="J412" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14145,9 +14571,7 @@
       <c r="I413" t="n">
         <v>6.05</v>
       </c>
-      <c r="J413" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14186,9 +14610,7 @@
       <c r="I414" t="n">
         <v>6.051</v>
       </c>
-      <c r="J414" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14227,9 +14649,7 @@
       <c r="I415" t="n">
         <v>6.08</v>
       </c>
-      <c r="J415" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14268,9 +14688,7 @@
       <c r="I416" t="n">
         <v>6.106</v>
       </c>
-      <c r="J416" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14309,9 +14727,7 @@
       <c r="I417" t="n">
         <v>6.087</v>
       </c>
-      <c r="J417" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14350,9 +14766,7 @@
       <c r="I418" t="n">
         <v>6.097</v>
       </c>
-      <c r="J418" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14391,9 +14805,7 @@
       <c r="I419" t="n">
         <v>6.106</v>
       </c>
-      <c r="J419" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14432,9 +14844,7 @@
       <c r="I420" t="n">
         <v>6.106</v>
       </c>
-      <c r="J420" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14473,9 +14883,7 @@
       <c r="I421" t="n">
         <v>6.108</v>
       </c>
-      <c r="J421" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14514,9 +14922,7 @@
       <c r="I422" t="n">
         <v>6.109</v>
       </c>
-      <c r="J422" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14555,9 +14961,7 @@
       <c r="I423" t="n">
         <v>6.111</v>
       </c>
-      <c r="J423" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14596,9 +15000,7 @@
       <c r="I424" t="n">
         <v>6.121</v>
       </c>
-      <c r="J424" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14637,9 +15039,7 @@
       <c r="I425" t="n">
         <v>6.121</v>
       </c>
-      <c r="J425" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14678,9 +15078,7 @@
       <c r="I426" t="n">
         <v>6.133</v>
       </c>
-      <c r="J426" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14719,9 +15117,7 @@
       <c r="I427" t="n">
         <v>6.14</v>
       </c>
-      <c r="J427" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14760,9 +15156,7 @@
       <c r="I428" t="n">
         <v>6.137</v>
       </c>
-      <c r="J428" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14801,9 +15195,7 @@
       <c r="I429" t="n">
         <v>6.137</v>
       </c>
-      <c r="J429" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14842,9 +15234,7 @@
       <c r="I430" t="n">
         <v>6.14</v>
       </c>
-      <c r="J430" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14878,14 +15268,10 @@
         <v>-31855885.44014264</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>6.165</v>
-      </c>
-      <c r="J431" t="n">
-        <v>6.104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14922,9 +15308,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14961,9 +15345,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15000,9 +15382,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15039,9 +15419,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15078,9 +15456,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15117,9 +15493,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15156,9 +15530,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15195,9 +15567,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15234,9 +15604,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15273,9 +15641,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15312,9 +15678,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15348,14 +15712,10 @@
         <v>-33167356.21203602</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>6.097</v>
-      </c>
-      <c r="J443" t="n">
-        <v>6.104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15389,14 +15749,10 @@
         <v>-32972170.71463602</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>6.097</v>
-      </c>
-      <c r="J444" t="n">
-        <v>6.104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15435,9 +15791,7 @@
       <c r="I445" t="n">
         <v>6.107</v>
       </c>
-      <c r="J445" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15476,9 +15830,7 @@
       <c r="I446" t="n">
         <v>6.122</v>
       </c>
-      <c r="J446" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15515,9 +15867,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15554,9 +15904,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15590,12 +15938,12 @@
         <v>-33287423.62223602</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>6.104</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15634,9 +15982,7 @@
       <c r="I450" t="n">
         <v>6.131</v>
       </c>
-      <c r="J450" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15675,9 +16021,7 @@
       <c r="I451" t="n">
         <v>6.13</v>
       </c>
-      <c r="J451" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15711,12 +16055,12 @@
         <v>-33181432.45203602</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>6.104</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15755,9 +16099,7 @@
       <c r="I453" t="n">
         <v>6.127</v>
       </c>
-      <c r="J453" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15796,9 +16138,7 @@
       <c r="I454" t="n">
         <v>6.131</v>
       </c>
-      <c r="J454" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15837,9 +16177,7 @@
       <c r="I455" t="n">
         <v>6.15</v>
       </c>
-      <c r="J455" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15873,12 +16211,12 @@
         <v>-32777092.47053602</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>6.104</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15917,9 +16255,7 @@
       <c r="I457" t="n">
         <v>6.151</v>
       </c>
-      <c r="J457" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15958,9 +16294,7 @@
       <c r="I458" t="n">
         <v>6.176</v>
       </c>
-      <c r="J458" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15997,9 +16331,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16036,9 +16368,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16075,9 +16405,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16114,9 +16442,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16153,9 +16479,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16192,9 +16516,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16231,9 +16553,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16270,9 +16590,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16309,9 +16627,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16348,9 +16664,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16387,9 +16701,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16426,9 +16738,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16465,9 +16775,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16504,9 +16812,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16543,9 +16849,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16582,9 +16886,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16621,9 +16923,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16660,9 +16960,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16699,9 +16997,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16738,9 +17034,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16777,9 +17071,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16816,9 +17108,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16855,9 +17145,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16894,9 +17182,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16933,9 +17219,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16972,9 +17256,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17011,9 +17293,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17050,9 +17330,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17089,9 +17367,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17128,9 +17404,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17167,9 +17441,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17206,9 +17478,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17245,9 +17515,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17284,9 +17552,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17323,9 +17589,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17362,9 +17626,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17401,9 +17663,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17440,9 +17700,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17479,9 +17737,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17518,9 +17774,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17557,9 +17811,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17596,9 +17848,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17635,9 +17885,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17674,9 +17922,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17713,9 +17959,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17752,9 +17996,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17791,9 +18033,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17830,9 +18070,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17869,9 +18107,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17908,9 +18144,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17947,9 +18181,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17986,9 +18218,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18025,9 +18255,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18064,9 +18292,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18103,9 +18329,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18142,9 +18366,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18181,9 +18403,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18220,9 +18440,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18259,9 +18477,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18298,9 +18514,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18337,9 +18551,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18376,9 +18588,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18415,9 +18625,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18454,9 +18662,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18493,9 +18699,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18532,9 +18736,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18571,9 +18773,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18610,9 +18810,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18649,9 +18847,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18688,9 +18884,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18727,9 +18921,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18766,9 +18958,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18805,9 +18995,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18844,9 +19032,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18883,9 +19069,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18922,9 +19106,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18961,9 +19143,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19000,9 +19180,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19039,9 +19217,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19078,9 +19254,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19117,9 +19291,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19156,9 +19328,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19195,9 +19365,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19234,9 +19402,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19273,9 +19439,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19312,9 +19476,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19351,9 +19513,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19390,9 +19550,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19429,9 +19587,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19468,9 +19624,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19507,9 +19661,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19546,9 +19698,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19585,9 +19735,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19624,9 +19772,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19663,9 +19809,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19702,9 +19846,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19741,9 +19883,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19780,9 +19920,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19819,9 +19957,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19858,9 +19994,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19897,9 +20031,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19936,9 +20068,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19975,9 +20105,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20014,9 +20142,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20053,9 +20179,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20092,9 +20216,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20131,9 +20253,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20170,9 +20290,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20209,9 +20327,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20248,9 +20364,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20287,9 +20401,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20326,9 +20438,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20365,9 +20475,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20404,9 +20512,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20443,9 +20549,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20482,9 +20586,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20521,9 +20623,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20560,9 +20660,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20599,9 +20697,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20638,9 +20734,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20677,9 +20771,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20716,9 +20808,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20755,9 +20845,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20794,9 +20882,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20833,9 +20919,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20872,9 +20956,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20911,9 +20993,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20950,9 +21030,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20989,9 +21067,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21028,9 +21104,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21067,9 +21141,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21106,9 +21178,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21145,9 +21215,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21184,9 +21252,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21223,9 +21289,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21262,9 +21326,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21301,9 +21363,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21340,9 +21400,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21379,9 +21437,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21418,9 +21474,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21457,9 +21511,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21496,9 +21548,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21535,9 +21585,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21574,9 +21622,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21613,9 +21659,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21652,9 +21696,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21691,9 +21733,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21730,9 +21770,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21769,9 +21807,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21808,9 +21844,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21847,9 +21881,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21886,9 +21918,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21925,9 +21955,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21964,9 +21992,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22003,9 +22029,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22042,9 +22066,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22081,9 +22103,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22120,9 +22140,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22159,9 +22177,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22198,9 +22214,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22237,9 +22251,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22276,9 +22288,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22315,9 +22325,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22354,9 +22362,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22393,9 +22399,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22432,9 +22436,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22471,9 +22473,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22510,9 +22510,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22549,9 +22547,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22588,9 +22584,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22627,9 +22621,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22666,9 +22658,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22705,9 +22695,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22744,9 +22732,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22783,9 +22769,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22822,9 +22806,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22861,9 +22843,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22900,9 +22880,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22939,9 +22917,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22978,9 +22954,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23017,9 +22991,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23056,9 +23028,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23095,9 +23065,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23134,9 +23102,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23173,9 +23139,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23212,9 +23176,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23251,9 +23213,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23290,9 +23250,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23329,9 +23287,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23368,9 +23324,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23407,9 +23361,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23446,9 +23398,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23485,9 +23435,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23524,9 +23472,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23563,9 +23509,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23602,9 +23546,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23641,9 +23583,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23680,9 +23620,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23719,9 +23657,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23758,9 +23694,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23797,9 +23731,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23836,9 +23768,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23875,9 +23805,7 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23914,9 +23842,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23953,9 +23879,7 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23992,9 +23916,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24031,9 +23953,7 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24070,9 +23990,7 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24109,9 +24027,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24148,9 +24064,7 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24187,9 +24101,7 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24226,9 +24138,7 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24265,9 +24175,7 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24304,9 +24212,7 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24343,9 +24249,7 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24382,9 +24286,7 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24421,9 +24323,7 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24460,9 +24360,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24499,9 +24397,7 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24538,9 +24434,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24577,9 +24471,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24616,9 +24508,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24655,9 +24545,7 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24694,9 +24582,7 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24733,9 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24772,9 +24656,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24811,9 +24693,7 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24850,9 +24730,7 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24889,9 +24767,7 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24928,9 +24804,7 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24967,9 +24841,7 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25006,9 +24878,7 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25045,9 +24915,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25084,9 +24952,7 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25123,9 +24989,7 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25162,9 +25026,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25201,9 +25063,7 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25240,9 +25100,7 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25279,9 +25137,7 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25318,9 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25357,9 +25211,7 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25396,9 +25248,7 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25435,9 +25285,7 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25474,9 +25322,7 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25513,9 +25359,7 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25552,9 +25396,7 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25591,9 +25433,7 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25630,9 +25470,7 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25669,9 +25507,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25708,9 +25544,7 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25747,9 +25581,7 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25786,9 +25618,7 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25825,9 +25655,7 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25864,9 +25692,7 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25903,9 +25729,7 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25942,9 +25766,7 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25981,9 +25803,7 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26020,9 +25840,7 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26059,9 +25877,7 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26098,9 +25914,7 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26137,9 +25951,7 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26176,9 +25988,7 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26215,9 +26025,7 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26254,9 +26062,7 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26293,9 +26099,7 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26332,9 +26136,7 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26371,9 +26173,7 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26410,9 +26210,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26449,9 +26247,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26488,9 +26284,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26527,9 +26321,7 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26566,9 +26358,7 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26605,9 +26395,7 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26644,9 +26432,7 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26683,9 +26469,7 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26722,9 +26506,7 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26761,9 +26543,7 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26800,9 +26580,7 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26839,9 +26617,7 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26878,9 +26654,7 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26917,9 +26691,7 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26956,9 +26728,7 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26995,9 +26765,7 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27034,9 +26802,7 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27073,9 +26839,7 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27112,9 +26876,7 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27151,9 +26913,7 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27190,9 +26950,7 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27229,9 +26987,7 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27268,9 +27024,7 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27307,9 +27061,7 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27346,9 +27098,7 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27385,9 +27135,7 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27424,9 +27172,7 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27463,9 +27209,7 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27502,9 +27246,7 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27541,9 +27283,7 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27580,9 +27320,7 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27619,9 +27357,7 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27658,9 +27394,7 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27697,9 +27431,7 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27736,9 +27468,7 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27775,9 +27505,7 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27814,9 +27542,7 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27853,9 +27579,7 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27892,9 +27616,7 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27931,9 +27653,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27970,9 +27690,7 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28009,9 +27727,7 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28048,9 +27764,7 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28087,9 +27801,7 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28126,9 +27838,7 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28165,9 +27875,7 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28204,9 +27912,7 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28243,9 +27949,7 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28282,9 +27986,7 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28321,9 +28023,7 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28360,9 +28060,7 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28399,9 +28097,7 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28438,9 +28134,7 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28477,9 +28171,7 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28516,9 +28208,7 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28555,9 +28245,7 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28594,9 +28282,7 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28633,9 +28319,7 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28672,9 +28356,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28711,9 +28393,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28750,9 +28430,7 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28789,9 +28467,7 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28828,9 +28504,7 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28867,9 +28541,7 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28906,9 +28578,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28945,9 +28615,7 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28984,9 +28652,7 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29023,9 +28689,7 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29062,9 +28726,7 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29101,9 +28763,7 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29140,9 +28800,7 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29179,9 +28837,7 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29218,9 +28874,7 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29257,9 +28911,7 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29296,9 +28948,7 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29335,9 +28985,7 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29374,9 +29022,7 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29413,9 +29059,7 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29452,9 +29096,7 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29491,9 +29133,7 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29530,9 +29170,7 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29569,9 +29207,7 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29608,9 +29244,7 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29647,9 +29281,7 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29686,9 +29318,7 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29725,9 +29355,7 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29764,9 +29392,7 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29803,9 +29429,7 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29842,9 +29466,7 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29881,9 +29503,7 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29920,9 +29540,7 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29959,9 +29577,7 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29998,9 +29614,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30037,9 +29651,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30076,9 +29688,7 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30115,9 +29725,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30154,9 +29762,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30193,9 +29799,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30232,9 +29836,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30271,9 +29873,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30310,9 +29910,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30349,9 +29947,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30388,9 +29984,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30427,9 +30021,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30466,9 +30058,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30505,9 +30095,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30544,9 +30132,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30583,9 +30169,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30622,9 +30206,7 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30661,9 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30700,9 +30280,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30739,9 +30317,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30778,9 +30354,7 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30817,9 +30391,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30856,9 +30428,7 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30895,9 +30465,7 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30934,9 +30502,7 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30973,9 +30539,7 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31012,9 +30576,7 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31051,9 +30613,7 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31090,9 +30650,7 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31129,9 +30687,7 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31168,9 +30724,7 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31207,9 +30761,7 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31246,9 +30798,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31285,9 +30835,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31324,9 +30872,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31363,9 +30909,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31399,23 +30943,19 @@
         <v>-14804655.86332886</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>6.104</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L854" t="n">
-        <v>1.164397116644823</v>
-      </c>
-      <c r="M854" t="n">
-        <v>1.195138195138195</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M854" t="inlineStr"/>
     </row>
     <row r="855">
       <c r="A855" s="1" t="n">
@@ -31440,11 +30980,15 @@
         <v>-14364635.22882886</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -31473,11 +31017,15 @@
         <v>-14946675.83512886</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -31506,11 +31054,15 @@
         <v>-19444459.78082886</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -31539,11 +31091,15 @@
         <v>-19112188.11142886</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -31572,11 +31128,15 @@
         <v>-21193155.70752886</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -31605,11 +31165,15 @@
         <v>-20900982.68262886</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -31638,11 +31202,15 @@
         <v>-20650905.25572886</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -31675,7 +31243,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -31708,7 +31280,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -31737,11 +31313,15 @@
         <v>-22663554.89822886</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -31774,7 +31354,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -31807,7 +31391,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -31840,7 +31428,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -31873,7 +31465,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -31906,7 +31502,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -31939,7 +31539,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -31972,7 +31576,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -32005,7 +31613,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -32038,7 +31650,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -32067,11 +31683,15 @@
         <v>-21893173.25508298</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -32100,11 +31720,15 @@
         <v>-22246929.87178298</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -32133,11 +31757,15 @@
         <v>-21120290.33258298</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -32166,11 +31794,15 @@
         <v>-20582955.87118298</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -32199,11 +31831,15 @@
         <v>-15883439.07218298</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -32236,10 +31872,12 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
-      <c r="L879" t="n">
-        <v>1</v>
-      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L879" t="inlineStr"/>
       <c r="M879" t="inlineStr"/>
     </row>
     <row r="880">
@@ -32331,7 +31969,7 @@
         <v>-25068857.74015798</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -32364,7 +32002,7 @@
         <v>-23775118.39398096</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -32397,7 +32035,7 @@
         <v>-23534990.36418096</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -32430,7 +32068,7 @@
         <v>-25236595.2810398</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -32463,7 +32101,7 @@
         <v>-25713043.7055398</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -32562,7 +32200,7 @@
         <v>-23308079.4777398</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -32727,7 +32365,7 @@
         <v>-26124207.86782219</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -35565,7 +35203,7 @@
         <v>-24988580.57145831</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -35598,7 +35236,7 @@
         <v>-24988580.57145831</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -35631,7 +35269,7 @@
         <v>-23825727.98945831</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -35664,7 +35302,7 @@
         <v>-25034553.39495831</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -35697,7 +35335,7 @@
         <v>-23967575.93745831</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -35730,7 +35368,7 @@
         <v>-24486818.52149514</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -35763,7 +35401,7 @@
         <v>-23871489.31639514</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -35796,7 +35434,7 @@
         <v>-23871489.31639514</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -35829,7 +35467,7 @@
         <v>-24521527.99669514</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -35862,7 +35500,7 @@
         <v>-23774678.70509514</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -35895,7 +35533,7 @@
         <v>-24418769.33469514</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -35928,7 +35566,7 @@
         <v>-24418769.33469514</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -35961,7 +35599,7 @@
         <v>-24695628.97509514</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -35994,7 +35632,7 @@
         <v>-24740058.20179514</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
